--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E03586-A31C-4A83-92B4-CE4D294343F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0B0645-5887-45DE-8DC5-62426A53B964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="4170" windowWidth="17280" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coal Consumption Rate of Power " sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -143,16 +143,16 @@
     <t>2003-05:2023-09</t>
   </si>
   <si>
-    <t>1989-02:2023-09</t>
+    <t>1989-02:2023-10</t>
   </si>
   <si>
-    <t>2001-01:2023-09</t>
+    <t>2001-01:2023-10</t>
   </si>
   <si>
-    <t>2016-05:2023-09</t>
+    <t>2016-05:2023-10</t>
   </si>
   <si>
-    <t>2009-09:2023-09</t>
+    <t>2009-09:2023-10</t>
   </si>
   <si>
     <t>Wind</t>
@@ -161,7 +161,10 @@
     <t>2023-10-24</t>
   </si>
   <si>
-    <t>2023-10-20</t>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
   </si>
 </sst>
 </file>
@@ -169,8 +172,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -213,6 +216,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -221,9 +227,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="G416" sqref="G416"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -580,210 +583,210 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>33</v>
+      <c r="I8" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>32567</v>
       </c>
       <c r="B9" s="2">
@@ -812,7 +815,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>32598</v>
       </c>
       <c r="B10" s="2">
@@ -841,7 +844,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>32628</v>
       </c>
       <c r="B11" s="2">
@@ -870,7 +873,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>32659</v>
       </c>
       <c r="B12" s="2">
@@ -899,7 +902,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>32689</v>
       </c>
       <c r="B13" s="2">
@@ -928,7 +931,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>32720</v>
       </c>
       <c r="B14" s="2">
@@ -957,7 +960,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>32751</v>
       </c>
       <c r="B15" s="2">
@@ -986,7 +989,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>32781</v>
       </c>
       <c r="B16" s="2">
@@ -1015,7 +1018,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>32812</v>
       </c>
       <c r="B17" s="2">
@@ -1044,7 +1047,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>32842</v>
       </c>
       <c r="B18" s="2">
@@ -1073,7 +1076,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>32873</v>
       </c>
       <c r="B19" s="2">
@@ -1102,7 +1105,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>32904</v>
       </c>
       <c r="B20" s="2">
@@ -1131,7 +1134,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>32932</v>
       </c>
       <c r="B21" s="2">
@@ -1160,7 +1163,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>32963</v>
       </c>
       <c r="B22" s="2">
@@ -1189,7 +1192,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>32993</v>
       </c>
       <c r="B23" s="2">
@@ -1218,7 +1221,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>33024</v>
       </c>
       <c r="B24" s="2">
@@ -1247,7 +1250,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>33054</v>
       </c>
       <c r="B25" s="2">
@@ -1276,7 +1279,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>33085</v>
       </c>
       <c r="B26" s="2">
@@ -1305,7 +1308,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>33116</v>
       </c>
       <c r="B27" s="2">
@@ -1334,7 +1337,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>33146</v>
       </c>
       <c r="B28" s="2">
@@ -1363,7 +1366,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>33177</v>
       </c>
       <c r="B29" s="2">
@@ -1392,7 +1395,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>33207</v>
       </c>
       <c r="B30" s="2">
@@ -1421,7 +1424,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>33238</v>
       </c>
       <c r="B31" s="2">
@@ -1450,7 +1453,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>33269</v>
       </c>
       <c r="B32" s="2">
@@ -1479,7 +1482,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>33297</v>
       </c>
       <c r="B33" s="2">
@@ -1508,7 +1511,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>33328</v>
       </c>
       <c r="B34" s="2">
@@ -1537,7 +1540,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>33358</v>
       </c>
       <c r="B35" s="2">
@@ -1566,7 +1569,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>33389</v>
       </c>
       <c r="B36" s="2">
@@ -1595,7 +1598,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>33419</v>
       </c>
       <c r="B37" s="2">
@@ -1624,7 +1627,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>33450</v>
       </c>
       <c r="B38" s="2">
@@ -1653,7 +1656,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>33481</v>
       </c>
       <c r="B39" s="2">
@@ -1682,7 +1685,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>33511</v>
       </c>
       <c r="B40" s="2">
@@ -1711,7 +1714,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>33542</v>
       </c>
       <c r="B41" s="2">
@@ -1740,7 +1743,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>33572</v>
       </c>
       <c r="B42" s="2">
@@ -1769,7 +1772,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>33603</v>
       </c>
       <c r="B43" s="2">
@@ -1798,7 +1801,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>33634</v>
       </c>
       <c r="B44" s="2">
@@ -1827,7 +1830,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>33663</v>
       </c>
       <c r="B45" s="2">
@@ -1856,7 +1859,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>33694</v>
       </c>
       <c r="B46" s="2">
@@ -1885,7 +1888,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>33724</v>
       </c>
       <c r="B47" s="2">
@@ -1914,7 +1917,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>33755</v>
       </c>
       <c r="B48" s="2">
@@ -1943,7 +1946,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>33785</v>
       </c>
       <c r="B49" s="2">
@@ -1972,7 +1975,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>33816</v>
       </c>
       <c r="B50" s="2">
@@ -2001,7 +2004,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>33847</v>
       </c>
       <c r="B51" s="2">
@@ -2030,7 +2033,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>33877</v>
       </c>
       <c r="B52" s="2">
@@ -2059,7 +2062,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>33908</v>
       </c>
       <c r="B53" s="2">
@@ -2088,7 +2091,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>33938</v>
       </c>
       <c r="B54" s="2">
@@ -2117,7 +2120,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>33969</v>
       </c>
       <c r="B55" s="2">
@@ -2146,7 +2149,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>34000</v>
       </c>
       <c r="B56" s="2">
@@ -2175,7 +2178,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>34028</v>
       </c>
       <c r="B57" s="2">
@@ -2204,7 +2207,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>34059</v>
       </c>
       <c r="B58" s="2">
@@ -2233,7 +2236,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>34089</v>
       </c>
       <c r="B59" s="2">
@@ -2262,7 +2265,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>34120</v>
       </c>
       <c r="B60" s="2">
@@ -2291,7 +2294,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>34150</v>
       </c>
       <c r="B61" s="2">
@@ -2320,7 +2323,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>34181</v>
       </c>
       <c r="B62" s="2">
@@ -2349,7 +2352,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>34212</v>
       </c>
       <c r="B63" s="2">
@@ -2378,7 +2381,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>34242</v>
       </c>
       <c r="B64" s="2">
@@ -2407,7 +2410,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>34273</v>
       </c>
       <c r="B65" s="2">
@@ -2436,7 +2439,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>34303</v>
       </c>
       <c r="B66" s="2">
@@ -2465,7 +2468,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>34334</v>
       </c>
       <c r="B67" s="2">
@@ -2494,7 +2497,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>34365</v>
       </c>
       <c r="B68" s="2">
@@ -2523,7 +2526,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>34393</v>
       </c>
       <c r="B69" s="2">
@@ -2552,7 +2555,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>34424</v>
       </c>
       <c r="B70" s="2">
@@ -2581,7 +2584,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>34454</v>
       </c>
       <c r="B71" s="2">
@@ -2610,7 +2613,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>34485</v>
       </c>
       <c r="B72" s="2">
@@ -2639,7 +2642,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>34515</v>
       </c>
       <c r="B73" s="2">
@@ -2668,7 +2671,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>34546</v>
       </c>
       <c r="B74" s="2">
@@ -2697,7 +2700,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="5">
+      <c r="A75" s="3">
         <v>34577</v>
       </c>
       <c r="B75" s="2">
@@ -2726,7 +2729,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>34607</v>
       </c>
       <c r="B76" s="2">
@@ -2755,7 +2758,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <v>34638</v>
       </c>
       <c r="B77" s="2">
@@ -2784,7 +2787,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>34668</v>
       </c>
       <c r="B78" s="2">
@@ -2813,7 +2816,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="5">
+      <c r="A79" s="3">
         <v>34699</v>
       </c>
       <c r="B79" s="2">
@@ -2842,7 +2845,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>34730</v>
       </c>
       <c r="B80" s="2">
@@ -2871,7 +2874,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="5">
+      <c r="A81" s="3">
         <v>34758</v>
       </c>
       <c r="B81" s="2">
@@ -2900,7 +2903,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="5">
+      <c r="A82" s="3">
         <v>34789</v>
       </c>
       <c r="B82" s="2">
@@ -2929,7 +2932,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="5">
+      <c r="A83" s="3">
         <v>34819</v>
       </c>
       <c r="B83" s="2">
@@ -2958,7 +2961,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="5">
+      <c r="A84" s="3">
         <v>34850</v>
       </c>
       <c r="B84" s="2">
@@ -2987,7 +2990,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="5">
+      <c r="A85" s="3">
         <v>34880</v>
       </c>
       <c r="B85" s="2">
@@ -3016,7 +3019,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="5">
+      <c r="A86" s="3">
         <v>34911</v>
       </c>
       <c r="B86" s="2">
@@ -3045,7 +3048,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="5">
+      <c r="A87" s="3">
         <v>34942</v>
       </c>
       <c r="B87" s="2">
@@ -3074,7 +3077,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="5">
+      <c r="A88" s="3">
         <v>34972</v>
       </c>
       <c r="B88" s="2">
@@ -3103,7 +3106,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="5">
+      <c r="A89" s="3">
         <v>35003</v>
       </c>
       <c r="B89" s="2">
@@ -3132,7 +3135,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="5">
+      <c r="A90" s="3">
         <v>35033</v>
       </c>
       <c r="B90" s="2">
@@ -3161,7 +3164,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="5">
+      <c r="A91" s="3">
         <v>35064</v>
       </c>
       <c r="B91" s="2">
@@ -3190,7 +3193,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="5">
+      <c r="A92" s="3">
         <v>35095</v>
       </c>
       <c r="B92" s="2">
@@ -3219,7 +3222,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="5">
+      <c r="A93" s="3">
         <v>35124</v>
       </c>
       <c r="B93" s="2">
@@ -3248,7 +3251,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="5">
+      <c r="A94" s="3">
         <v>35155</v>
       </c>
       <c r="B94" s="2">
@@ -3277,7 +3280,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="5">
+      <c r="A95" s="3">
         <v>35185</v>
       </c>
       <c r="B95" s="2">
@@ -3306,7 +3309,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="5">
+      <c r="A96" s="3">
         <v>35216</v>
       </c>
       <c r="B96" s="2">
@@ -3335,7 +3338,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="5">
+      <c r="A97" s="3">
         <v>35246</v>
       </c>
       <c r="B97" s="2">
@@ -3364,7 +3367,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="5">
+      <c r="A98" s="3">
         <v>35277</v>
       </c>
       <c r="B98" s="2">
@@ -3393,7 +3396,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="5">
+      <c r="A99" s="3">
         <v>35308</v>
       </c>
       <c r="B99" s="2">
@@ -3422,7 +3425,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="5">
+      <c r="A100" s="3">
         <v>35338</v>
       </c>
       <c r="B100" s="2">
@@ -3451,7 +3454,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="5">
+      <c r="A101" s="3">
         <v>35369</v>
       </c>
       <c r="B101" s="2">
@@ -3480,7 +3483,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="5">
+      <c r="A102" s="3">
         <v>35399</v>
       </c>
       <c r="B102" s="2">
@@ -3509,7 +3512,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="5">
+      <c r="A103" s="3">
         <v>35430</v>
       </c>
       <c r="B103" s="2">
@@ -3538,7 +3541,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="5">
+      <c r="A104" s="3">
         <v>35461</v>
       </c>
       <c r="B104" s="2">
@@ -3567,7 +3570,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="5">
+      <c r="A105" s="3">
         <v>35489</v>
       </c>
       <c r="B105" s="2">
@@ -3596,7 +3599,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="5">
+      <c r="A106" s="3">
         <v>35520</v>
       </c>
       <c r="B106" s="2">
@@ -3625,7 +3628,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="5">
+      <c r="A107" s="3">
         <v>35550</v>
       </c>
       <c r="B107" s="2">
@@ -3654,7 +3657,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="5">
+      <c r="A108" s="3">
         <v>35581</v>
       </c>
       <c r="B108" s="2">
@@ -3683,7 +3686,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="5">
+      <c r="A109" s="3">
         <v>35611</v>
       </c>
       <c r="B109" s="2">
@@ -3712,7 +3715,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="5">
+      <c r="A110" s="3">
         <v>35642</v>
       </c>
       <c r="B110" s="2">
@@ -3741,7 +3744,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="5">
+      <c r="A111" s="3">
         <v>35673</v>
       </c>
       <c r="B111" s="2">
@@ -3770,7 +3773,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="5">
+      <c r="A112" s="3">
         <v>35703</v>
       </c>
       <c r="B112" s="2">
@@ -3799,7 +3802,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="5">
+      <c r="A113" s="3">
         <v>35734</v>
       </c>
       <c r="B113" s="2">
@@ -3828,7 +3831,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="5">
+      <c r="A114" s="3">
         <v>35764</v>
       </c>
       <c r="B114" s="2">
@@ -3857,7 +3860,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="5">
+      <c r="A115" s="3">
         <v>35795</v>
       </c>
       <c r="B115" s="2">
@@ -3886,7 +3889,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="5">
+      <c r="A116" s="3">
         <v>35826</v>
       </c>
       <c r="B116" s="2">
@@ -3915,7 +3918,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="5">
+      <c r="A117" s="3">
         <v>35854</v>
       </c>
       <c r="B117" s="2">
@@ -3944,7 +3947,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="5">
+      <c r="A118" s="3">
         <v>35885</v>
       </c>
       <c r="B118" s="2">
@@ -3973,7 +3976,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="5">
+      <c r="A119" s="3">
         <v>35915</v>
       </c>
       <c r="B119" s="2">
@@ -4002,7 +4005,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="5">
+      <c r="A120" s="3">
         <v>35946</v>
       </c>
       <c r="B120" s="2">
@@ -4031,7 +4034,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="5">
+      <c r="A121" s="3">
         <v>35976</v>
       </c>
       <c r="B121" s="2">
@@ -4060,7 +4063,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="5">
+      <c r="A122" s="3">
         <v>36007</v>
       </c>
       <c r="B122" s="2">
@@ -4089,7 +4092,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="5">
+      <c r="A123" s="3">
         <v>36038</v>
       </c>
       <c r="B123" s="2">
@@ -4118,7 +4121,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="5">
+      <c r="A124" s="3">
         <v>36068</v>
       </c>
       <c r="B124" s="2">
@@ -4147,7 +4150,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="5">
+      <c r="A125" s="3">
         <v>36099</v>
       </c>
       <c r="B125" s="2">
@@ -4176,7 +4179,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="5">
+      <c r="A126" s="3">
         <v>36129</v>
       </c>
       <c r="B126" s="2">
@@ -4205,7 +4208,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="5">
+      <c r="A127" s="3">
         <v>36160</v>
       </c>
       <c r="B127" s="2">
@@ -4234,7 +4237,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="5">
+      <c r="A128" s="3">
         <v>36191</v>
       </c>
       <c r="B128" s="2">
@@ -4263,7 +4266,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="5">
+      <c r="A129" s="3">
         <v>36219</v>
       </c>
       <c r="B129" s="2">
@@ -4292,7 +4295,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="5">
+      <c r="A130" s="3">
         <v>36250</v>
       </c>
       <c r="B130" s="2">
@@ -4321,7 +4324,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="5">
+      <c r="A131" s="3">
         <v>36280</v>
       </c>
       <c r="B131" s="2">
@@ -4350,7 +4353,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="5">
+      <c r="A132" s="3">
         <v>36311</v>
       </c>
       <c r="B132" s="2">
@@ -4379,7 +4382,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="5">
+      <c r="A133" s="3">
         <v>36341</v>
       </c>
       <c r="B133" s="2">
@@ -4408,7 +4411,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="5">
+      <c r="A134" s="3">
         <v>36372</v>
       </c>
       <c r="B134" s="2">
@@ -4437,7 +4440,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="5">
+      <c r="A135" s="3">
         <v>36403</v>
       </c>
       <c r="B135" s="2">
@@ -4466,7 +4469,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="5">
+      <c r="A136" s="3">
         <v>36433</v>
       </c>
       <c r="B136" s="2">
@@ -4495,7 +4498,7 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="5">
+      <c r="A137" s="3">
         <v>36464</v>
       </c>
       <c r="B137" s="2">
@@ -4524,7 +4527,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="5">
+      <c r="A138" s="3">
         <v>36494</v>
       </c>
       <c r="B138" s="2">
@@ -4553,7 +4556,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="5">
+      <c r="A139" s="3">
         <v>36525</v>
       </c>
       <c r="B139" s="2">
@@ -4582,7 +4585,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="5">
+      <c r="A140" s="3">
         <v>36556</v>
       </c>
       <c r="B140" s="2">
@@ -4611,7 +4614,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="5">
+      <c r="A141" s="3">
         <v>36585</v>
       </c>
       <c r="B141" s="2">
@@ -4640,7 +4643,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="5">
+      <c r="A142" s="3">
         <v>36616</v>
       </c>
       <c r="B142" s="2">
@@ -4669,7 +4672,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="5">
+      <c r="A143" s="3">
         <v>36646</v>
       </c>
       <c r="B143" s="2">
@@ -4698,7 +4701,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="5">
+      <c r="A144" s="3">
         <v>36677</v>
       </c>
       <c r="B144" s="2">
@@ -4727,7 +4730,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="5">
+      <c r="A145" s="3">
         <v>36707</v>
       </c>
       <c r="B145" s="2">
@@ -4756,7 +4759,7 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="5">
+      <c r="A146" s="3">
         <v>36738</v>
       </c>
       <c r="B146" s="2">
@@ -4785,7 +4788,7 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="5">
+      <c r="A147" s="3">
         <v>36769</v>
       </c>
       <c r="B147" s="2">
@@ -4814,7 +4817,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="5">
+      <c r="A148" s="3">
         <v>36799</v>
       </c>
       <c r="B148" s="2">
@@ -4843,7 +4846,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="5">
+      <c r="A149" s="3">
         <v>36830</v>
       </c>
       <c r="B149" s="2">
@@ -4872,7 +4875,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="5">
+      <c r="A150" s="3">
         <v>36860</v>
       </c>
       <c r="B150" s="2">
@@ -4901,7 +4904,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="5">
+      <c r="A151" s="3">
         <v>36891</v>
       </c>
       <c r="B151" s="2">
@@ -4930,7 +4933,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="5">
+      <c r="A152" s="3">
         <v>36922</v>
       </c>
       <c r="B152" s="2">
@@ -4959,7 +4962,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="5">
+      <c r="A153" s="3">
         <v>36950</v>
       </c>
       <c r="B153" s="2">
@@ -4988,7 +4991,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="5">
+      <c r="A154" s="3">
         <v>36981</v>
       </c>
       <c r="B154" s="2">
@@ -5017,7 +5020,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="5">
+      <c r="A155" s="3">
         <v>37011</v>
       </c>
       <c r="B155" s="2">
@@ -5046,7 +5049,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="5">
+      <c r="A156" s="3">
         <v>37042</v>
       </c>
       <c r="B156" s="2">
@@ -5075,7 +5078,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="5">
+      <c r="A157" s="3">
         <v>37072</v>
       </c>
       <c r="B157" s="2">
@@ -5104,7 +5107,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="5">
+      <c r="A158" s="3">
         <v>37103</v>
       </c>
       <c r="B158" s="2">
@@ -5133,7 +5136,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="5">
+      <c r="A159" s="3">
         <v>37134</v>
       </c>
       <c r="B159" s="2">
@@ -5162,7 +5165,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="5">
+      <c r="A160" s="3">
         <v>37164</v>
       </c>
       <c r="B160" s="2">
@@ -5191,7 +5194,7 @@
       </c>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="5">
+      <c r="A161" s="3">
         <v>37195</v>
       </c>
       <c r="B161" s="2">
@@ -5220,7 +5223,7 @@
       </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="5">
+      <c r="A162" s="3">
         <v>37225</v>
       </c>
       <c r="B162" s="2">
@@ -5249,7 +5252,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="5">
+      <c r="A163" s="3">
         <v>37256</v>
       </c>
       <c r="B163" s="2">
@@ -5278,7 +5281,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="5">
+      <c r="A164" s="3">
         <v>37287</v>
       </c>
       <c r="B164" s="2">
@@ -5307,7 +5310,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="5">
+      <c r="A165" s="3">
         <v>37315</v>
       </c>
       <c r="B165" s="2">
@@ -5336,7 +5339,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="5">
+      <c r="A166" s="3">
         <v>37346</v>
       </c>
       <c r="B166" s="2">
@@ -5365,7 +5368,7 @@
       </c>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="5">
+      <c r="A167" s="3">
         <v>37376</v>
       </c>
       <c r="B167" s="2">
@@ -5394,7 +5397,7 @@
       </c>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="5">
+      <c r="A168" s="3">
         <v>37407</v>
       </c>
       <c r="B168" s="2">
@@ -5423,7 +5426,7 @@
       </c>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="5">
+      <c r="A169" s="3">
         <v>37437</v>
       </c>
       <c r="B169" s="2">
@@ -5452,7 +5455,7 @@
       </c>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="5">
+      <c r="A170" s="3">
         <v>37468</v>
       </c>
       <c r="B170" s="2">
@@ -5481,7 +5484,7 @@
       </c>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="5">
+      <c r="A171" s="3">
         <v>37499</v>
       </c>
       <c r="B171" s="2">
@@ -5510,7 +5513,7 @@
       </c>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="5">
+      <c r="A172" s="3">
         <v>37529</v>
       </c>
       <c r="B172" s="2">
@@ -5539,7 +5542,7 @@
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="5">
+      <c r="A173" s="3">
         <v>37560</v>
       </c>
       <c r="B173" s="2">
@@ -5568,7 +5571,7 @@
       </c>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="5">
+      <c r="A174" s="3">
         <v>37590</v>
       </c>
       <c r="B174" s="2">
@@ -5597,7 +5600,7 @@
       </c>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="5">
+      <c r="A175" s="3">
         <v>37621</v>
       </c>
       <c r="B175" s="2">
@@ -5626,7 +5629,7 @@
       </c>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="5">
+      <c r="A176" s="3">
         <v>37652</v>
       </c>
       <c r="B176" s="2">
@@ -5655,7 +5658,7 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="5">
+      <c r="A177" s="3">
         <v>37680</v>
       </c>
       <c r="B177" s="2">
@@ -5684,7 +5687,7 @@
       </c>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="5">
+      <c r="A178" s="3">
         <v>37711</v>
       </c>
       <c r="B178" s="2">
@@ -5713,7 +5716,7 @@
       </c>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="5">
+      <c r="A179" s="3">
         <v>37741</v>
       </c>
       <c r="B179" s="2">
@@ -5742,7 +5745,7 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="5">
+      <c r="A180" s="3">
         <v>37772</v>
       </c>
       <c r="B180" s="2">
@@ -5771,7 +5774,7 @@
       </c>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="5">
+      <c r="A181" s="3">
         <v>37802</v>
       </c>
       <c r="B181" s="2">
@@ -5800,7 +5803,7 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="5">
+      <c r="A182" s="3">
         <v>37833</v>
       </c>
       <c r="B182" s="2">
@@ -5829,7 +5832,7 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="5">
+      <c r="A183" s="3">
         <v>37864</v>
       </c>
       <c r="B183" s="2">
@@ -5858,7 +5861,7 @@
       </c>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="5">
+      <c r="A184" s="3">
         <v>37894</v>
       </c>
       <c r="B184" s="2">
@@ -5887,7 +5890,7 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="5">
+      <c r="A185" s="3">
         <v>37925</v>
       </c>
       <c r="B185" s="2">
@@ -5916,7 +5919,7 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="5">
+      <c r="A186" s="3">
         <v>37955</v>
       </c>
       <c r="B186" s="2">
@@ -5945,7 +5948,7 @@
       </c>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="5">
+      <c r="A187" s="3">
         <v>37986</v>
       </c>
       <c r="B187" s="2">
@@ -5974,7 +5977,7 @@
       </c>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="5">
+      <c r="A188" s="3">
         <v>38017</v>
       </c>
       <c r="B188" s="2">
@@ -6003,7 +6006,7 @@
       </c>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="5">
+      <c r="A189" s="3">
         <v>38046</v>
       </c>
       <c r="B189" s="2">
@@ -6032,7 +6035,7 @@
       </c>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="5">
+      <c r="A190" s="3">
         <v>38077</v>
       </c>
       <c r="B190" s="2">
@@ -6061,7 +6064,7 @@
       </c>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="5">
+      <c r="A191" s="3">
         <v>38107</v>
       </c>
       <c r="B191" s="2">
@@ -6090,7 +6093,7 @@
       </c>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="5">
+      <c r="A192" s="3">
         <v>38138</v>
       </c>
       <c r="B192" s="2">
@@ -6119,7 +6122,7 @@
       </c>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="5">
+      <c r="A193" s="3">
         <v>38168</v>
       </c>
       <c r="B193" s="2">
@@ -6148,7 +6151,7 @@
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="5">
+      <c r="A194" s="3">
         <v>38199</v>
       </c>
       <c r="B194" s="2">
@@ -6177,7 +6180,7 @@
       </c>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="5">
+      <c r="A195" s="3">
         <v>38230</v>
       </c>
       <c r="B195" s="2">
@@ -6206,7 +6209,7 @@
       </c>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="5">
+      <c r="A196" s="3">
         <v>38260</v>
       </c>
       <c r="B196" s="2">
@@ -6235,7 +6238,7 @@
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="5">
+      <c r="A197" s="3">
         <v>38291</v>
       </c>
       <c r="B197" s="2">
@@ -6264,7 +6267,7 @@
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="5">
+      <c r="A198" s="3">
         <v>38321</v>
       </c>
       <c r="B198" s="2">
@@ -6293,7 +6296,7 @@
       </c>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="5">
+      <c r="A199" s="3">
         <v>38352</v>
       </c>
       <c r="B199" s="2">
@@ -6322,7 +6325,7 @@
       </c>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="5">
+      <c r="A200" s="3">
         <v>38383</v>
       </c>
       <c r="B200" s="2">
@@ -6351,7 +6354,7 @@
       </c>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="5">
+      <c r="A201" s="3">
         <v>38411</v>
       </c>
       <c r="B201" s="2">
@@ -6380,7 +6383,7 @@
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="5">
+      <c r="A202" s="3">
         <v>38442</v>
       </c>
       <c r="B202" s="2">
@@ -6409,7 +6412,7 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="5">
+      <c r="A203" s="3">
         <v>38472</v>
       </c>
       <c r="B203" s="2">
@@ -6438,7 +6441,7 @@
       </c>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" s="5">
+      <c r="A204" s="3">
         <v>38503</v>
       </c>
       <c r="B204" s="2">
@@ -6467,7 +6470,7 @@
       </c>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205" s="5">
+      <c r="A205" s="3">
         <v>38533</v>
       </c>
       <c r="B205" s="2">
@@ -6496,7 +6499,7 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="5">
+      <c r="A206" s="3">
         <v>38564</v>
       </c>
       <c r="B206" s="2">
@@ -6525,7 +6528,7 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="5">
+      <c r="A207" s="3">
         <v>38595</v>
       </c>
       <c r="B207" s="2">
@@ -6554,7 +6557,7 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="5">
+      <c r="A208" s="3">
         <v>38625</v>
       </c>
       <c r="B208" s="2">
@@ -6583,7 +6586,7 @@
       </c>
     </row>
     <row r="209" spans="1:9">
-      <c r="A209" s="5">
+      <c r="A209" s="3">
         <v>38656</v>
       </c>
       <c r="B209" s="2">
@@ -6612,7 +6615,7 @@
       </c>
     </row>
     <row r="210" spans="1:9">
-      <c r="A210" s="5">
+      <c r="A210" s="3">
         <v>38686</v>
       </c>
       <c r="B210" s="2">
@@ -6641,7 +6644,7 @@
       </c>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="5">
+      <c r="A211" s="3">
         <v>38717</v>
       </c>
       <c r="B211" s="2">
@@ -6670,7 +6673,7 @@
       </c>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="5">
+      <c r="A212" s="3">
         <v>38748</v>
       </c>
       <c r="B212" s="2">
@@ -6699,7 +6702,7 @@
       </c>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="5">
+      <c r="A213" s="3">
         <v>38776</v>
       </c>
       <c r="B213" s="2">
@@ -6728,7 +6731,7 @@
       </c>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="5">
+      <c r="A214" s="3">
         <v>38807</v>
       </c>
       <c r="B214" s="2">
@@ -6757,7 +6760,7 @@
       </c>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="5">
+      <c r="A215" s="3">
         <v>38837</v>
       </c>
       <c r="B215" s="2">
@@ -6786,7 +6789,7 @@
       </c>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="5">
+      <c r="A216" s="3">
         <v>38868</v>
       </c>
       <c r="B216" s="2">
@@ -6815,7 +6818,7 @@
       </c>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="5">
+      <c r="A217" s="3">
         <v>38898</v>
       </c>
       <c r="B217" s="2">
@@ -6844,7 +6847,7 @@
       </c>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="5">
+      <c r="A218" s="3">
         <v>38929</v>
       </c>
       <c r="B218" s="2">
@@ -6873,7 +6876,7 @@
       </c>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="5">
+      <c r="A219" s="3">
         <v>38960</v>
       </c>
       <c r="B219" s="2">
@@ -6902,7 +6905,7 @@
       </c>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="5">
+      <c r="A220" s="3">
         <v>38990</v>
       </c>
       <c r="B220" s="2">
@@ -6931,7 +6934,7 @@
       </c>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="5">
+      <c r="A221" s="3">
         <v>39021</v>
       </c>
       <c r="B221" s="2">
@@ -6960,7 +6963,7 @@
       </c>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="5">
+      <c r="A222" s="3">
         <v>39051</v>
       </c>
       <c r="B222" s="2">
@@ -6989,7 +6992,7 @@
       </c>
     </row>
     <row r="223" spans="1:9">
-      <c r="A223" s="5">
+      <c r="A223" s="3">
         <v>39082</v>
       </c>
       <c r="B223" s="2">
@@ -7018,7 +7021,7 @@
       </c>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="5">
+      <c r="A224" s="3">
         <v>39113</v>
       </c>
       <c r="B224" s="2">
@@ -7047,7 +7050,7 @@
       </c>
     </row>
     <row r="225" spans="1:9">
-      <c r="A225" s="5">
+      <c r="A225" s="3">
         <v>39141</v>
       </c>
       <c r="B225" s="2">
@@ -7076,7 +7079,7 @@
       </c>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="5">
+      <c r="A226" s="3">
         <v>39172</v>
       </c>
       <c r="B226" s="2">
@@ -7105,7 +7108,7 @@
       </c>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="5">
+      <c r="A227" s="3">
         <v>39202</v>
       </c>
       <c r="B227" s="2">
@@ -7134,7 +7137,7 @@
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="5">
+      <c r="A228" s="3">
         <v>39233</v>
       </c>
       <c r="B228" s="2">
@@ -7163,7 +7166,7 @@
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="5">
+      <c r="A229" s="3">
         <v>39263</v>
       </c>
       <c r="B229" s="2">
@@ -7192,7 +7195,7 @@
       </c>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="5">
+      <c r="A230" s="3">
         <v>39294</v>
       </c>
       <c r="B230" s="2">
@@ -7221,7 +7224,7 @@
       </c>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="5">
+      <c r="A231" s="3">
         <v>39325</v>
       </c>
       <c r="B231" s="2">
@@ -7250,7 +7253,7 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="5">
+      <c r="A232" s="3">
         <v>39355</v>
       </c>
       <c r="B232" s="2">
@@ -7279,7 +7282,7 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="5">
+      <c r="A233" s="3">
         <v>39386</v>
       </c>
       <c r="B233" s="2">
@@ -7308,7 +7311,7 @@
       </c>
     </row>
     <row r="234" spans="1:9">
-      <c r="A234" s="5">
+      <c r="A234" s="3">
         <v>39416</v>
       </c>
       <c r="B234" s="2">
@@ -7337,7 +7340,7 @@
       </c>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="5">
+      <c r="A235" s="3">
         <v>39447</v>
       </c>
       <c r="B235" s="2">
@@ -7366,7 +7369,7 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="5">
+      <c r="A236" s="3">
         <v>39478</v>
       </c>
       <c r="B236" s="2">
@@ -7395,7 +7398,7 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="5">
+      <c r="A237" s="3">
         <v>39507</v>
       </c>
       <c r="B237" s="2">
@@ -7424,7 +7427,7 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="5">
+      <c r="A238" s="3">
         <v>39538</v>
       </c>
       <c r="B238" s="2">
@@ -7453,7 +7456,7 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="5">
+      <c r="A239" s="3">
         <v>39568</v>
       </c>
       <c r="B239" s="2">
@@ -7482,7 +7485,7 @@
       </c>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="5">
+      <c r="A240" s="3">
         <v>39599</v>
       </c>
       <c r="B240" s="2">
@@ -7511,7 +7514,7 @@
       </c>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="5">
+      <c r="A241" s="3">
         <v>39629</v>
       </c>
       <c r="B241" s="2">
@@ -7540,7 +7543,7 @@
       </c>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="5">
+      <c r="A242" s="3">
         <v>39660</v>
       </c>
       <c r="B242" s="2">
@@ -7569,7 +7572,7 @@
       </c>
     </row>
     <row r="243" spans="1:9">
-      <c r="A243" s="5">
+      <c r="A243" s="3">
         <v>39691</v>
       </c>
       <c r="B243" s="2">
@@ -7598,7 +7601,7 @@
       </c>
     </row>
     <row r="244" spans="1:9">
-      <c r="A244" s="5">
+      <c r="A244" s="3">
         <v>39721</v>
       </c>
       <c r="B244" s="2">
@@ -7627,7 +7630,7 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="5">
+      <c r="A245" s="3">
         <v>39752</v>
       </c>
       <c r="B245" s="2">
@@ -7656,7 +7659,7 @@
       </c>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="5">
+      <c r="A246" s="3">
         <v>39782</v>
       </c>
       <c r="B246" s="2">
@@ -7685,7 +7688,7 @@
       </c>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="5">
+      <c r="A247" s="3">
         <v>39813</v>
       </c>
       <c r="B247" s="2">
@@ -7714,7 +7717,7 @@
       </c>
     </row>
     <row r="248" spans="1:9">
-      <c r="A248" s="5">
+      <c r="A248" s="3">
         <v>39844</v>
       </c>
       <c r="B248" s="2">
@@ -7743,7 +7746,7 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="5">
+      <c r="A249" s="3">
         <v>39872</v>
       </c>
       <c r="B249" s="2">
@@ -7772,7 +7775,7 @@
       </c>
     </row>
     <row r="250" spans="1:9">
-      <c r="A250" s="5">
+      <c r="A250" s="3">
         <v>39903</v>
       </c>
       <c r="B250" s="2">
@@ -7801,7 +7804,7 @@
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="5">
+      <c r="A251" s="3">
         <v>39933</v>
       </c>
       <c r="B251" s="2">
@@ -7830,7 +7833,7 @@
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="5">
+      <c r="A252" s="3">
         <v>39964</v>
       </c>
       <c r="B252" s="2">
@@ -7859,7 +7862,7 @@
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="5">
+      <c r="A253" s="3">
         <v>39994</v>
       </c>
       <c r="B253" s="2">
@@ -7888,7 +7891,7 @@
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="5">
+      <c r="A254" s="3">
         <v>40025</v>
       </c>
       <c r="B254" s="2">
@@ -7917,7 +7920,7 @@
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="5">
+      <c r="A255" s="3">
         <v>40056</v>
       </c>
       <c r="B255" s="2">
@@ -7946,7 +7949,7 @@
       </c>
     </row>
     <row r="256" spans="1:9">
-      <c r="A256" s="5">
+      <c r="A256" s="3">
         <v>40086</v>
       </c>
       <c r="B256" s="2">
@@ -7975,7 +7978,7 @@
       </c>
     </row>
     <row r="257" spans="1:9">
-      <c r="A257" s="5">
+      <c r="A257" s="3">
         <v>40117</v>
       </c>
       <c r="B257" s="2">
@@ -8004,7 +8007,7 @@
       </c>
     </row>
     <row r="258" spans="1:9">
-      <c r="A258" s="5">
+      <c r="A258" s="3">
         <v>40147</v>
       </c>
       <c r="B258" s="2">
@@ -8033,7 +8036,7 @@
       </c>
     </row>
     <row r="259" spans="1:9">
-      <c r="A259" s="5">
+      <c r="A259" s="3">
         <v>40178</v>
       </c>
       <c r="B259" s="2">
@@ -8062,7 +8065,7 @@
       </c>
     </row>
     <row r="260" spans="1:9">
-      <c r="A260" s="5">
+      <c r="A260" s="3">
         <v>40209</v>
       </c>
       <c r="B260" s="2">
@@ -8091,7 +8094,7 @@
       </c>
     </row>
     <row r="261" spans="1:9">
-      <c r="A261" s="5">
+      <c r="A261" s="3">
         <v>40237</v>
       </c>
       <c r="B261" s="2">
@@ -8120,7 +8123,7 @@
       </c>
     </row>
     <row r="262" spans="1:9">
-      <c r="A262" s="5">
+      <c r="A262" s="3">
         <v>40268</v>
       </c>
       <c r="B262" s="2">
@@ -8149,7 +8152,7 @@
       </c>
     </row>
     <row r="263" spans="1:9">
-      <c r="A263" s="5">
+      <c r="A263" s="3">
         <v>40298</v>
       </c>
       <c r="B263" s="2">
@@ -8178,7 +8181,7 @@
       </c>
     </row>
     <row r="264" spans="1:9">
-      <c r="A264" s="5">
+      <c r="A264" s="3">
         <v>40329</v>
       </c>
       <c r="B264" s="2">
@@ -8207,7 +8210,7 @@
       </c>
     </row>
     <row r="265" spans="1:9">
-      <c r="A265" s="5">
+      <c r="A265" s="3">
         <v>40359</v>
       </c>
       <c r="B265" s="2">
@@ -8236,7 +8239,7 @@
       </c>
     </row>
     <row r="266" spans="1:9">
-      <c r="A266" s="5">
+      <c r="A266" s="3">
         <v>40390</v>
       </c>
       <c r="B266" s="2">
@@ -8265,7 +8268,7 @@
       </c>
     </row>
     <row r="267" spans="1:9">
-      <c r="A267" s="5">
+      <c r="A267" s="3">
         <v>40421</v>
       </c>
       <c r="B267" s="2">
@@ -8294,7 +8297,7 @@
       </c>
     </row>
     <row r="268" spans="1:9">
-      <c r="A268" s="5">
+      <c r="A268" s="3">
         <v>40451</v>
       </c>
       <c r="B268" s="2">
@@ -8323,7 +8326,7 @@
       </c>
     </row>
     <row r="269" spans="1:9">
-      <c r="A269" s="5">
+      <c r="A269" s="3">
         <v>40482</v>
       </c>
       <c r="B269" s="2">
@@ -8352,7 +8355,7 @@
       </c>
     </row>
     <row r="270" spans="1:9">
-      <c r="A270" s="5">
+      <c r="A270" s="3">
         <v>40512</v>
       </c>
       <c r="B270" s="2">
@@ -8381,7 +8384,7 @@
       </c>
     </row>
     <row r="271" spans="1:9">
-      <c r="A271" s="5">
+      <c r="A271" s="3">
         <v>40543</v>
       </c>
       <c r="B271" s="2">
@@ -8410,7 +8413,7 @@
       </c>
     </row>
     <row r="272" spans="1:9">
-      <c r="A272" s="5">
+      <c r="A272" s="3">
         <v>40574</v>
       </c>
       <c r="B272" s="2">
@@ -8439,7 +8442,7 @@
       </c>
     </row>
     <row r="273" spans="1:9">
-      <c r="A273" s="5">
+      <c r="A273" s="3">
         <v>40602</v>
       </c>
       <c r="B273" s="2">
@@ -8468,7 +8471,7 @@
       </c>
     </row>
     <row r="274" spans="1:9">
-      <c r="A274" s="5">
+      <c r="A274" s="3">
         <v>40633</v>
       </c>
       <c r="B274" s="2">
@@ -8497,7 +8500,7 @@
       </c>
     </row>
     <row r="275" spans="1:9">
-      <c r="A275" s="5">
+      <c r="A275" s="3">
         <v>40663</v>
       </c>
       <c r="B275" s="2">
@@ -8526,7 +8529,7 @@
       </c>
     </row>
     <row r="276" spans="1:9">
-      <c r="A276" s="5">
+      <c r="A276" s="3">
         <v>40694</v>
       </c>
       <c r="B276" s="2">
@@ -8555,7 +8558,7 @@
       </c>
     </row>
     <row r="277" spans="1:9">
-      <c r="A277" s="5">
+      <c r="A277" s="3">
         <v>40724</v>
       </c>
       <c r="B277" s="2">
@@ -8584,7 +8587,7 @@
       </c>
     </row>
     <row r="278" spans="1:9">
-      <c r="A278" s="5">
+      <c r="A278" s="3">
         <v>40755</v>
       </c>
       <c r="B278" s="2">
@@ -8613,7 +8616,7 @@
       </c>
     </row>
     <row r="279" spans="1:9">
-      <c r="A279" s="5">
+      <c r="A279" s="3">
         <v>40786</v>
       </c>
       <c r="B279" s="2">
@@ -8642,7 +8645,7 @@
       </c>
     </row>
     <row r="280" spans="1:9">
-      <c r="A280" s="5">
+      <c r="A280" s="3">
         <v>40816</v>
       </c>
       <c r="B280" s="2">
@@ -8671,7 +8674,7 @@
       </c>
     </row>
     <row r="281" spans="1:9">
-      <c r="A281" s="5">
+      <c r="A281" s="3">
         <v>40847</v>
       </c>
       <c r="B281" s="2">
@@ -8700,7 +8703,7 @@
       </c>
     </row>
     <row r="282" spans="1:9">
-      <c r="A282" s="5">
+      <c r="A282" s="3">
         <v>40877</v>
       </c>
       <c r="B282" s="2">
@@ -8729,7 +8732,7 @@
       </c>
     </row>
     <row r="283" spans="1:9">
-      <c r="A283" s="5">
+      <c r="A283" s="3">
         <v>40908</v>
       </c>
       <c r="B283" s="2">
@@ -8758,7 +8761,7 @@
       </c>
     </row>
     <row r="284" spans="1:9">
-      <c r="A284" s="5">
+      <c r="A284" s="3">
         <v>40939</v>
       </c>
       <c r="B284" s="2">
@@ -8787,7 +8790,7 @@
       </c>
     </row>
     <row r="285" spans="1:9">
-      <c r="A285" s="5">
+      <c r="A285" s="3">
         <v>40968</v>
       </c>
       <c r="B285" s="2">
@@ -8816,7 +8819,7 @@
       </c>
     </row>
     <row r="286" spans="1:9">
-      <c r="A286" s="5">
+      <c r="A286" s="3">
         <v>40999</v>
       </c>
       <c r="B286" s="2">
@@ -8845,7 +8848,7 @@
       </c>
     </row>
     <row r="287" spans="1:9">
-      <c r="A287" s="5">
+      <c r="A287" s="3">
         <v>41029</v>
       </c>
       <c r="B287" s="2">
@@ -8874,7 +8877,7 @@
       </c>
     </row>
     <row r="288" spans="1:9">
-      <c r="A288" s="5">
+      <c r="A288" s="3">
         <v>41060</v>
       </c>
       <c r="B288" s="2">
@@ -8903,7 +8906,7 @@
       </c>
     </row>
     <row r="289" spans="1:9">
-      <c r="A289" s="5">
+      <c r="A289" s="3">
         <v>41090</v>
       </c>
       <c r="B289" s="2">
@@ -8932,7 +8935,7 @@
       </c>
     </row>
     <row r="290" spans="1:9">
-      <c r="A290" s="5">
+      <c r="A290" s="3">
         <v>41121</v>
       </c>
       <c r="B290" s="2">
@@ -8961,7 +8964,7 @@
       </c>
     </row>
     <row r="291" spans="1:9">
-      <c r="A291" s="5">
+      <c r="A291" s="3">
         <v>41152</v>
       </c>
       <c r="B291" s="2">
@@ -8990,7 +8993,7 @@
       </c>
     </row>
     <row r="292" spans="1:9">
-      <c r="A292" s="5">
+      <c r="A292" s="3">
         <v>41182</v>
       </c>
       <c r="B292" s="2">
@@ -9019,7 +9022,7 @@
       </c>
     </row>
     <row r="293" spans="1:9">
-      <c r="A293" s="5">
+      <c r="A293" s="3">
         <v>41213</v>
       </c>
       <c r="B293" s="2">
@@ -9048,7 +9051,7 @@
       </c>
     </row>
     <row r="294" spans="1:9">
-      <c r="A294" s="5">
+      <c r="A294" s="3">
         <v>41243</v>
       </c>
       <c r="B294" s="2">
@@ -9077,7 +9080,7 @@
       </c>
     </row>
     <row r="295" spans="1:9">
-      <c r="A295" s="5">
+      <c r="A295" s="3">
         <v>41274</v>
       </c>
       <c r="B295" s="2">
@@ -9106,7 +9109,7 @@
       </c>
     </row>
     <row r="296" spans="1:9">
-      <c r="A296" s="5">
+      <c r="A296" s="3">
         <v>41305</v>
       </c>
       <c r="B296" s="2">
@@ -9135,7 +9138,7 @@
       </c>
     </row>
     <row r="297" spans="1:9">
-      <c r="A297" s="5">
+      <c r="A297" s="3">
         <v>41333</v>
       </c>
       <c r="B297" s="2">
@@ -9164,7 +9167,7 @@
       </c>
     </row>
     <row r="298" spans="1:9">
-      <c r="A298" s="5">
+      <c r="A298" s="3">
         <v>41364</v>
       </c>
       <c r="B298" s="2">
@@ -9193,7 +9196,7 @@
       </c>
     </row>
     <row r="299" spans="1:9">
-      <c r="A299" s="5">
+      <c r="A299" s="3">
         <v>41394</v>
       </c>
       <c r="B299" s="2">
@@ -9222,7 +9225,7 @@
       </c>
     </row>
     <row r="300" spans="1:9">
-      <c r="A300" s="5">
+      <c r="A300" s="3">
         <v>41425</v>
       </c>
       <c r="B300" s="2">
@@ -9251,7 +9254,7 @@
       </c>
     </row>
     <row r="301" spans="1:9">
-      <c r="A301" s="5">
+      <c r="A301" s="3">
         <v>41455</v>
       </c>
       <c r="B301" s="2">
@@ -9280,7 +9283,7 @@
       </c>
     </row>
     <row r="302" spans="1:9">
-      <c r="A302" s="5">
+      <c r="A302" s="3">
         <v>41486</v>
       </c>
       <c r="B302" s="2">
@@ -9309,7 +9312,7 @@
       </c>
     </row>
     <row r="303" spans="1:9">
-      <c r="A303" s="5">
+      <c r="A303" s="3">
         <v>41517</v>
       </c>
       <c r="B303" s="2">
@@ -9338,7 +9341,7 @@
       </c>
     </row>
     <row r="304" spans="1:9">
-      <c r="A304" s="5">
+      <c r="A304" s="3">
         <v>41547</v>
       </c>
       <c r="B304" s="2">
@@ -9367,7 +9370,7 @@
       </c>
     </row>
     <row r="305" spans="1:9">
-      <c r="A305" s="5">
+      <c r="A305" s="3">
         <v>41578</v>
       </c>
       <c r="B305" s="2">
@@ -9396,7 +9399,7 @@
       </c>
     </row>
     <row r="306" spans="1:9">
-      <c r="A306" s="5">
+      <c r="A306" s="3">
         <v>41608</v>
       </c>
       <c r="B306" s="2">
@@ -9425,7 +9428,7 @@
       </c>
     </row>
     <row r="307" spans="1:9">
-      <c r="A307" s="5">
+      <c r="A307" s="3">
         <v>41639</v>
       </c>
       <c r="B307" s="2">
@@ -9454,7 +9457,7 @@
       </c>
     </row>
     <row r="308" spans="1:9">
-      <c r="A308" s="5">
+      <c r="A308" s="3">
         <v>41670</v>
       </c>
       <c r="B308" s="2">
@@ -9483,7 +9486,7 @@
       </c>
     </row>
     <row r="309" spans="1:9">
-      <c r="A309" s="5">
+      <c r="A309" s="3">
         <v>41698</v>
       </c>
       <c r="B309" s="2">
@@ -9512,7 +9515,7 @@
       </c>
     </row>
     <row r="310" spans="1:9">
-      <c r="A310" s="5">
+      <c r="A310" s="3">
         <v>41729</v>
       </c>
       <c r="B310" s="2">
@@ -9541,7 +9544,7 @@
       </c>
     </row>
     <row r="311" spans="1:9">
-      <c r="A311" s="5">
+      <c r="A311" s="3">
         <v>41759</v>
       </c>
       <c r="B311" s="2">
@@ -9570,7 +9573,7 @@
       </c>
     </row>
     <row r="312" spans="1:9">
-      <c r="A312" s="5">
+      <c r="A312" s="3">
         <v>41790</v>
       </c>
       <c r="B312" s="2">
@@ -9599,7 +9602,7 @@
       </c>
     </row>
     <row r="313" spans="1:9">
-      <c r="A313" s="5">
+      <c r="A313" s="3">
         <v>41820</v>
       </c>
       <c r="B313" s="2">
@@ -9628,7 +9631,7 @@
       </c>
     </row>
     <row r="314" spans="1:9">
-      <c r="A314" s="5">
+      <c r="A314" s="3">
         <v>41851</v>
       </c>
       <c r="B314" s="2">
@@ -9657,7 +9660,7 @@
       </c>
     </row>
     <row r="315" spans="1:9">
-      <c r="A315" s="5">
+      <c r="A315" s="3">
         <v>41882</v>
       </c>
       <c r="B315" s="2">
@@ -9686,7 +9689,7 @@
       </c>
     </row>
     <row r="316" spans="1:9">
-      <c r="A316" s="5">
+      <c r="A316" s="3">
         <v>41912</v>
       </c>
       <c r="B316" s="2">
@@ -9715,7 +9718,7 @@
       </c>
     </row>
     <row r="317" spans="1:9">
-      <c r="A317" s="5">
+      <c r="A317" s="3">
         <v>41943</v>
       </c>
       <c r="B317" s="2">
@@ -9744,7 +9747,7 @@
       </c>
     </row>
     <row r="318" spans="1:9">
-      <c r="A318" s="5">
+      <c r="A318" s="3">
         <v>41973</v>
       </c>
       <c r="B318" s="2">
@@ -9773,7 +9776,7 @@
       </c>
     </row>
     <row r="319" spans="1:9">
-      <c r="A319" s="5">
+      <c r="A319" s="3">
         <v>42004</v>
       </c>
       <c r="B319" s="2">
@@ -9802,7 +9805,7 @@
       </c>
     </row>
     <row r="320" spans="1:9">
-      <c r="A320" s="5">
+      <c r="A320" s="3">
         <v>42035</v>
       </c>
       <c r="B320" s="2">
@@ -9831,7 +9834,7 @@
       </c>
     </row>
     <row r="321" spans="1:9">
-      <c r="A321" s="5">
+      <c r="A321" s="3">
         <v>42063</v>
       </c>
       <c r="B321" s="2">
@@ -9860,7 +9863,7 @@
       </c>
     </row>
     <row r="322" spans="1:9">
-      <c r="A322" s="5">
+      <c r="A322" s="3">
         <v>42094</v>
       </c>
       <c r="B322" s="2">
@@ -9889,7 +9892,7 @@
       </c>
     </row>
     <row r="323" spans="1:9">
-      <c r="A323" s="5">
+      <c r="A323" s="3">
         <v>42124</v>
       </c>
       <c r="B323" s="2">
@@ -9918,7 +9921,7 @@
       </c>
     </row>
     <row r="324" spans="1:9">
-      <c r="A324" s="5">
+      <c r="A324" s="3">
         <v>42155</v>
       </c>
       <c r="B324" s="2">
@@ -9947,7 +9950,7 @@
       </c>
     </row>
     <row r="325" spans="1:9">
-      <c r="A325" s="5">
+      <c r="A325" s="3">
         <v>42185</v>
       </c>
       <c r="B325" s="2">
@@ -9976,7 +9979,7 @@
       </c>
     </row>
     <row r="326" spans="1:9">
-      <c r="A326" s="5">
+      <c r="A326" s="3">
         <v>42216</v>
       </c>
       <c r="B326" s="2">
@@ -10005,7 +10008,7 @@
       </c>
     </row>
     <row r="327" spans="1:9">
-      <c r="A327" s="5">
+      <c r="A327" s="3">
         <v>42247</v>
       </c>
       <c r="B327" s="2">
@@ -10034,7 +10037,7 @@
       </c>
     </row>
     <row r="328" spans="1:9">
-      <c r="A328" s="5">
+      <c r="A328" s="3">
         <v>42277</v>
       </c>
       <c r="B328" s="2">
@@ -10063,7 +10066,7 @@
       </c>
     </row>
     <row r="329" spans="1:9">
-      <c r="A329" s="5">
+      <c r="A329" s="3">
         <v>42308</v>
       </c>
       <c r="B329" s="2">
@@ -10092,7 +10095,7 @@
       </c>
     </row>
     <row r="330" spans="1:9">
-      <c r="A330" s="5">
+      <c r="A330" s="3">
         <v>42338</v>
       </c>
       <c r="B330" s="2">
@@ -10121,7 +10124,7 @@
       </c>
     </row>
     <row r="331" spans="1:9">
-      <c r="A331" s="5">
+      <c r="A331" s="3">
         <v>42369</v>
       </c>
       <c r="B331" s="2">
@@ -10150,7 +10153,7 @@
       </c>
     </row>
     <row r="332" spans="1:9">
-      <c r="A332" s="5">
+      <c r="A332" s="3">
         <v>42429</v>
       </c>
       <c r="B332" s="2">
@@ -10179,7 +10182,7 @@
       </c>
     </row>
     <row r="333" spans="1:9">
-      <c r="A333" s="5">
+      <c r="A333" s="3">
         <v>42460</v>
       </c>
       <c r="B333" s="2">
@@ -10208,7 +10211,7 @@
       </c>
     </row>
     <row r="334" spans="1:9">
-      <c r="A334" s="5">
+      <c r="A334" s="3">
         <v>42490</v>
       </c>
       <c r="B334" s="2">
@@ -10237,7 +10240,7 @@
       </c>
     </row>
     <row r="335" spans="1:9">
-      <c r="A335" s="5">
+      <c r="A335" s="3">
         <v>42521</v>
       </c>
       <c r="B335" s="2">
@@ -10266,7 +10269,7 @@
       </c>
     </row>
     <row r="336" spans="1:9">
-      <c r="A336" s="5">
+      <c r="A336" s="3">
         <v>42551</v>
       </c>
       <c r="B336" s="2">
@@ -10295,7 +10298,7 @@
       </c>
     </row>
     <row r="337" spans="1:9">
-      <c r="A337" s="5">
+      <c r="A337" s="3">
         <v>42582</v>
       </c>
       <c r="B337" s="2">
@@ -10324,7 +10327,7 @@
       </c>
     </row>
     <row r="338" spans="1:9">
-      <c r="A338" s="5">
+      <c r="A338" s="3">
         <v>42613</v>
       </c>
       <c r="B338" s="2">
@@ -10353,7 +10356,7 @@
       </c>
     </row>
     <row r="339" spans="1:9">
-      <c r="A339" s="5">
+      <c r="A339" s="3">
         <v>42643</v>
       </c>
       <c r="B339" s="2">
@@ -10382,7 +10385,7 @@
       </c>
     </row>
     <row r="340" spans="1:9">
-      <c r="A340" s="5">
+      <c r="A340" s="3">
         <v>42674</v>
       </c>
       <c r="B340" s="2">
@@ -10411,7 +10414,7 @@
       </c>
     </row>
     <row r="341" spans="1:9">
-      <c r="A341" s="5">
+      <c r="A341" s="3">
         <v>42704</v>
       </c>
       <c r="B341" s="2">
@@ -10440,7 +10443,7 @@
       </c>
     </row>
     <row r="342" spans="1:9">
-      <c r="A342" s="5">
+      <c r="A342" s="3">
         <v>42735</v>
       </c>
       <c r="B342" s="2">
@@ -10469,7 +10472,7 @@
       </c>
     </row>
     <row r="343" spans="1:9">
-      <c r="A343" s="5">
+      <c r="A343" s="3">
         <v>42794</v>
       </c>
       <c r="B343" s="2">
@@ -10498,7 +10501,7 @@
       </c>
     </row>
     <row r="344" spans="1:9">
-      <c r="A344" s="5">
+      <c r="A344" s="3">
         <v>42825</v>
       </c>
       <c r="B344" s="2">
@@ -10527,7 +10530,7 @@
       </c>
     </row>
     <row r="345" spans="1:9">
-      <c r="A345" s="5">
+      <c r="A345" s="3">
         <v>42855</v>
       </c>
       <c r="B345" s="2">
@@ -10556,7 +10559,7 @@
       </c>
     </row>
     <row r="346" spans="1:9">
-      <c r="A346" s="5">
+      <c r="A346" s="3">
         <v>42886</v>
       </c>
       <c r="B346" s="2">
@@ -10585,7 +10588,7 @@
       </c>
     </row>
     <row r="347" spans="1:9">
-      <c r="A347" s="5">
+      <c r="A347" s="3">
         <v>42916</v>
       </c>
       <c r="B347" s="2">
@@ -10614,7 +10617,7 @@
       </c>
     </row>
     <row r="348" spans="1:9">
-      <c r="A348" s="5">
+      <c r="A348" s="3">
         <v>42947</v>
       </c>
       <c r="B348" s="2">
@@ -10643,7 +10646,7 @@
       </c>
     </row>
     <row r="349" spans="1:9">
-      <c r="A349" s="5">
+      <c r="A349" s="3">
         <v>42978</v>
       </c>
       <c r="B349" s="2">
@@ -10672,7 +10675,7 @@
       </c>
     </row>
     <row r="350" spans="1:9">
-      <c r="A350" s="5">
+      <c r="A350" s="3">
         <v>43008</v>
       </c>
       <c r="B350" s="2">
@@ -10701,7 +10704,7 @@
       </c>
     </row>
     <row r="351" spans="1:9">
-      <c r="A351" s="5">
+      <c r="A351" s="3">
         <v>43039</v>
       </c>
       <c r="B351" s="2">
@@ -10730,7 +10733,7 @@
       </c>
     </row>
     <row r="352" spans="1:9">
-      <c r="A352" s="5">
+      <c r="A352" s="3">
         <v>43069</v>
       </c>
       <c r="B352" s="2">
@@ -10759,7 +10762,7 @@
       </c>
     </row>
     <row r="353" spans="1:9">
-      <c r="A353" s="5">
+      <c r="A353" s="3">
         <v>43100</v>
       </c>
       <c r="B353" s="2">
@@ -10788,7 +10791,7 @@
       </c>
     </row>
     <row r="354" spans="1:9">
-      <c r="A354" s="5">
+      <c r="A354" s="3">
         <v>43159</v>
       </c>
       <c r="B354" s="2">
@@ -10817,7 +10820,7 @@
       </c>
     </row>
     <row r="355" spans="1:9">
-      <c r="A355" s="5">
+      <c r="A355" s="3">
         <v>43190</v>
       </c>
       <c r="B355" s="2">
@@ -10846,7 +10849,7 @@
       </c>
     </row>
     <row r="356" spans="1:9">
-      <c r="A356" s="5">
+      <c r="A356" s="3">
         <v>43220</v>
       </c>
       <c r="B356" s="2">
@@ -10875,7 +10878,7 @@
       </c>
     </row>
     <row r="357" spans="1:9">
-      <c r="A357" s="5">
+      <c r="A357" s="3">
         <v>43251</v>
       </c>
       <c r="B357" s="2">
@@ -10904,7 +10907,7 @@
       </c>
     </row>
     <row r="358" spans="1:9">
-      <c r="A358" s="5">
+      <c r="A358" s="3">
         <v>43281</v>
       </c>
       <c r="B358" s="2">
@@ -10933,7 +10936,7 @@
       </c>
     </row>
     <row r="359" spans="1:9">
-      <c r="A359" s="5">
+      <c r="A359" s="3">
         <v>43312</v>
       </c>
       <c r="B359" s="2">
@@ -10962,7 +10965,7 @@
       </c>
     </row>
     <row r="360" spans="1:9">
-      <c r="A360" s="5">
+      <c r="A360" s="3">
         <v>43343</v>
       </c>
       <c r="B360" s="2">
@@ -10991,7 +10994,7 @@
       </c>
     </row>
     <row r="361" spans="1:9">
-      <c r="A361" s="5">
+      <c r="A361" s="3">
         <v>43373</v>
       </c>
       <c r="B361" s="2">
@@ -11020,7 +11023,7 @@
       </c>
     </row>
     <row r="362" spans="1:9">
-      <c r="A362" s="5">
+      <c r="A362" s="3">
         <v>43404</v>
       </c>
       <c r="B362" s="2">
@@ -11049,7 +11052,7 @@
       </c>
     </row>
     <row r="363" spans="1:9">
-      <c r="A363" s="5">
+      <c r="A363" s="3">
         <v>43434</v>
       </c>
       <c r="B363" s="2">
@@ -11078,7 +11081,7 @@
       </c>
     </row>
     <row r="364" spans="1:9">
-      <c r="A364" s="5">
+      <c r="A364" s="3">
         <v>43465</v>
       </c>
       <c r="B364" s="2">
@@ -11107,7 +11110,7 @@
       </c>
     </row>
     <row r="365" spans="1:9">
-      <c r="A365" s="5">
+      <c r="A365" s="3">
         <v>43524</v>
       </c>
       <c r="B365" s="2">
@@ -11136,7 +11139,7 @@
       </c>
     </row>
     <row r="366" spans="1:9">
-      <c r="A366" s="5">
+      <c r="A366" s="3">
         <v>43555</v>
       </c>
       <c r="B366" s="2">
@@ -11165,7 +11168,7 @@
       </c>
     </row>
     <row r="367" spans="1:9">
-      <c r="A367" s="5">
+      <c r="A367" s="3">
         <v>43585</v>
       </c>
       <c r="B367" s="2">
@@ -11194,7 +11197,7 @@
       </c>
     </row>
     <row r="368" spans="1:9">
-      <c r="A368" s="5">
+      <c r="A368" s="3">
         <v>43616</v>
       </c>
       <c r="B368" s="2">
@@ -11223,7 +11226,7 @@
       </c>
     </row>
     <row r="369" spans="1:9">
-      <c r="A369" s="5">
+      <c r="A369" s="3">
         <v>43646</v>
       </c>
       <c r="B369" s="2">
@@ -11252,7 +11255,7 @@
       </c>
     </row>
     <row r="370" spans="1:9">
-      <c r="A370" s="5">
+      <c r="A370" s="3">
         <v>43677</v>
       </c>
       <c r="B370" s="2">
@@ -11281,7 +11284,7 @@
       </c>
     </row>
     <row r="371" spans="1:9">
-      <c r="A371" s="5">
+      <c r="A371" s="3">
         <v>43708</v>
       </c>
       <c r="B371" s="2">
@@ -11310,7 +11313,7 @@
       </c>
     </row>
     <row r="372" spans="1:9">
-      <c r="A372" s="5">
+      <c r="A372" s="3">
         <v>43738</v>
       </c>
       <c r="B372" s="2">
@@ -11339,7 +11342,7 @@
       </c>
     </row>
     <row r="373" spans="1:9">
-      <c r="A373" s="5">
+      <c r="A373" s="3">
         <v>43769</v>
       </c>
       <c r="B373" s="2">
@@ -11368,7 +11371,7 @@
       </c>
     </row>
     <row r="374" spans="1:9">
-      <c r="A374" s="5">
+      <c r="A374" s="3">
         <v>43799</v>
       </c>
       <c r="B374" s="2">
@@ -11397,7 +11400,7 @@
       </c>
     </row>
     <row r="375" spans="1:9">
-      <c r="A375" s="5">
+      <c r="A375" s="3">
         <v>43830</v>
       </c>
       <c r="B375" s="2">
@@ -11426,7 +11429,7 @@
       </c>
     </row>
     <row r="376" spans="1:9">
-      <c r="A376" s="5">
+      <c r="A376" s="3">
         <v>43890</v>
       </c>
       <c r="B376" s="2">
@@ -11455,7 +11458,7 @@
       </c>
     </row>
     <row r="377" spans="1:9">
-      <c r="A377" s="5">
+      <c r="A377" s="3">
         <v>43921</v>
       </c>
       <c r="B377" s="2">
@@ -11484,7 +11487,7 @@
       </c>
     </row>
     <row r="378" spans="1:9">
-      <c r="A378" s="5">
+      <c r="A378" s="3">
         <v>43951</v>
       </c>
       <c r="B378" s="2">
@@ -11513,7 +11516,7 @@
       </c>
     </row>
     <row r="379" spans="1:9">
-      <c r="A379" s="5">
+      <c r="A379" s="3">
         <v>43982</v>
       </c>
       <c r="B379" s="2">
@@ -11542,7 +11545,7 @@
       </c>
     </row>
     <row r="380" spans="1:9">
-      <c r="A380" s="5">
+      <c r="A380" s="3">
         <v>44012</v>
       </c>
       <c r="B380" s="2">
@@ -11571,7 +11574,7 @@
       </c>
     </row>
     <row r="381" spans="1:9">
-      <c r="A381" s="5">
+      <c r="A381" s="3">
         <v>44043</v>
       </c>
       <c r="B381" s="2">
@@ -11600,7 +11603,7 @@
       </c>
     </row>
     <row r="382" spans="1:9">
-      <c r="A382" s="5">
+      <c r="A382" s="3">
         <v>44074</v>
       </c>
       <c r="B382" s="2">
@@ -11629,7 +11632,7 @@
       </c>
     </row>
     <row r="383" spans="1:9">
-      <c r="A383" s="5">
+      <c r="A383" s="3">
         <v>44104</v>
       </c>
       <c r="B383" s="2">
@@ -11658,7 +11661,7 @@
       </c>
     </row>
     <row r="384" spans="1:9">
-      <c r="A384" s="5">
+      <c r="A384" s="3">
         <v>44135</v>
       </c>
       <c r="B384" s="2">
@@ -11687,7 +11690,7 @@
       </c>
     </row>
     <row r="385" spans="1:9">
-      <c r="A385" s="5">
+      <c r="A385" s="3">
         <v>44165</v>
       </c>
       <c r="B385" s="2">
@@ -11716,7 +11719,7 @@
       </c>
     </row>
     <row r="386" spans="1:9">
-      <c r="A386" s="5">
+      <c r="A386" s="3">
         <v>44196</v>
       </c>
       <c r="B386" s="2">
@@ -11745,7 +11748,7 @@
       </c>
     </row>
     <row r="387" spans="1:9">
-      <c r="A387" s="5">
+      <c r="A387" s="3">
         <v>44255</v>
       </c>
       <c r="B387" s="2">
@@ -11774,7 +11777,7 @@
       </c>
     </row>
     <row r="388" spans="1:9">
-      <c r="A388" s="5">
+      <c r="A388" s="3">
         <v>44286</v>
       </c>
       <c r="B388" s="2">
@@ -11803,7 +11806,7 @@
       </c>
     </row>
     <row r="389" spans="1:9">
-      <c r="A389" s="5">
+      <c r="A389" s="3">
         <v>44316</v>
       </c>
       <c r="B389" s="2">
@@ -11832,7 +11835,7 @@
       </c>
     </row>
     <row r="390" spans="1:9">
-      <c r="A390" s="5">
+      <c r="A390" s="3">
         <v>44347</v>
       </c>
       <c r="B390" s="2">
@@ -11861,7 +11864,7 @@
       </c>
     </row>
     <row r="391" spans="1:9">
-      <c r="A391" s="5">
+      <c r="A391" s="3">
         <v>44377</v>
       </c>
       <c r="B391" s="2">
@@ -11890,7 +11893,7 @@
       </c>
     </row>
     <row r="392" spans="1:9">
-      <c r="A392" s="5">
+      <c r="A392" s="3">
         <v>44408</v>
       </c>
       <c r="B392" s="2">
@@ -11919,7 +11922,7 @@
       </c>
     </row>
     <row r="393" spans="1:9">
-      <c r="A393" s="5">
+      <c r="A393" s="3">
         <v>44439</v>
       </c>
       <c r="B393" s="2">
@@ -11948,7 +11951,7 @@
       </c>
     </row>
     <row r="394" spans="1:9">
-      <c r="A394" s="5">
+      <c r="A394" s="3">
         <v>44469</v>
       </c>
       <c r="B394" s="2">
@@ -11977,7 +11980,7 @@
       </c>
     </row>
     <row r="395" spans="1:9">
-      <c r="A395" s="5">
+      <c r="A395" s="3">
         <v>44500</v>
       </c>
       <c r="B395" s="2">
@@ -12006,7 +12009,7 @@
       </c>
     </row>
     <row r="396" spans="1:9">
-      <c r="A396" s="5">
+      <c r="A396" s="3">
         <v>44530</v>
       </c>
       <c r="B396" s="2">
@@ -12035,7 +12038,7 @@
       </c>
     </row>
     <row r="397" spans="1:9">
-      <c r="A397" s="5">
+      <c r="A397" s="3">
         <v>44561</v>
       </c>
       <c r="B397" s="2">
@@ -12064,7 +12067,7 @@
       </c>
     </row>
     <row r="398" spans="1:9">
-      <c r="A398" s="5">
+      <c r="A398" s="3">
         <v>44620</v>
       </c>
       <c r="B398" s="2">
@@ -12093,7 +12096,7 @@
       </c>
     </row>
     <row r="399" spans="1:9">
-      <c r="A399" s="5">
+      <c r="A399" s="3">
         <v>44651</v>
       </c>
       <c r="B399" s="2">
@@ -12122,7 +12125,7 @@
       </c>
     </row>
     <row r="400" spans="1:9">
-      <c r="A400" s="5">
+      <c r="A400" s="3">
         <v>44681</v>
       </c>
       <c r="B400" s="2">
@@ -12151,7 +12154,7 @@
       </c>
     </row>
     <row r="401" spans="1:9">
-      <c r="A401" s="5">
+      <c r="A401" s="3">
         <v>44712</v>
       </c>
       <c r="B401" s="2">
@@ -12180,7 +12183,7 @@
       </c>
     </row>
     <row r="402" spans="1:9">
-      <c r="A402" s="5">
+      <c r="A402" s="3">
         <v>44742</v>
       </c>
       <c r="B402" s="2">
@@ -12209,7 +12212,7 @@
       </c>
     </row>
     <row r="403" spans="1:9">
-      <c r="A403" s="5">
+      <c r="A403" s="3">
         <v>44773</v>
       </c>
       <c r="B403" s="2">
@@ -12238,7 +12241,7 @@
       </c>
     </row>
     <row r="404" spans="1:9">
-      <c r="A404" s="5">
+      <c r="A404" s="3">
         <v>44804</v>
       </c>
       <c r="B404" s="2">
@@ -12267,11 +12270,11 @@
       </c>
     </row>
     <row r="405" spans="1:9">
-      <c r="A405" s="5">
+      <c r="A405" s="3">
         <v>44834</v>
       </c>
       <c r="B405" s="2">
-        <v>304.2</v>
+        <v>304.3</v>
       </c>
       <c r="C405" s="2">
         <v>62867.4</v>
@@ -12296,7 +12299,7 @@
       </c>
     </row>
     <row r="406" spans="1:9">
-      <c r="A406" s="5">
+      <c r="A406" s="3">
         <v>44865</v>
       </c>
       <c r="B406" s="2">
@@ -12325,7 +12328,7 @@
       </c>
     </row>
     <row r="407" spans="1:9">
-      <c r="A407" s="5">
+      <c r="A407" s="3">
         <v>44895</v>
       </c>
       <c r="B407" s="2">
@@ -12354,7 +12357,7 @@
       </c>
     </row>
     <row r="408" spans="1:9">
-      <c r="A408" s="5">
+      <c r="A408" s="3">
         <v>44926</v>
       </c>
       <c r="B408" s="2">
@@ -12383,7 +12386,7 @@
       </c>
     </row>
     <row r="409" spans="1:9">
-      <c r="A409" s="5">
+      <c r="A409" s="3">
         <v>44985</v>
       </c>
       <c r="B409" s="2">
@@ -12412,7 +12415,7 @@
       </c>
     </row>
     <row r="410" spans="1:9">
-      <c r="A410" s="5">
+      <c r="A410" s="3">
         <v>45016</v>
       </c>
       <c r="B410" s="2">
@@ -12441,7 +12444,7 @@
       </c>
     </row>
     <row r="411" spans="1:9">
-      <c r="A411" s="5">
+      <c r="A411" s="3">
         <v>45046</v>
       </c>
       <c r="B411" s="2">
@@ -12470,7 +12473,7 @@
       </c>
     </row>
     <row r="412" spans="1:9">
-      <c r="A412" s="5">
+      <c r="A412" s="3">
         <v>45077</v>
       </c>
       <c r="B412" s="2">
@@ -12499,7 +12502,7 @@
       </c>
     </row>
     <row r="413" spans="1:9">
-      <c r="A413" s="5">
+      <c r="A413" s="3">
         <v>45107</v>
       </c>
       <c r="B413" s="2">
@@ -12528,7 +12531,7 @@
       </c>
     </row>
     <row r="414" spans="1:9">
-      <c r="A414" s="5">
+      <c r="A414" s="3">
         <v>45138</v>
       </c>
       <c r="B414" s="2">
@@ -12557,7 +12560,7 @@
       </c>
     </row>
     <row r="415" spans="1:9">
-      <c r="A415" s="5">
+      <c r="A415" s="3">
         <v>45169</v>
       </c>
       <c r="B415" s="2">
@@ -12586,7 +12589,7 @@
       </c>
     </row>
     <row r="416" spans="1:9">
-      <c r="A416" s="5">
+      <c r="A416" s="3">
         <v>45199</v>
       </c>
       <c r="B416" s="2">
@@ -12611,7 +12614,36 @@
         <v>5836.8</v>
       </c>
       <c r="I416" s="2">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" s="3">
+        <v>45230</v>
+      </c>
+      <c r="B417" s="2">
+        <v>0</v>
+      </c>
+      <c r="C417" s="2">
+        <v>73330</v>
+      </c>
+      <c r="D417" s="2">
+        <v>51077</v>
+      </c>
+      <c r="E417" s="2">
+        <v>9805</v>
+      </c>
+      <c r="F417" s="2">
+        <v>3587</v>
+      </c>
+      <c r="G417" s="2">
+        <v>2436</v>
+      </c>
+      <c r="H417" s="2">
+        <v>6424</v>
+      </c>
+      <c r="I417" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E03586-A31C-4A83-92B4-CE4D294343F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EEB192-E7FB-4A7A-812E-21362D72591D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -143,25 +143,28 @@
     <t>2003-05:2023-09</t>
   </si>
   <si>
-    <t>1989-02:2023-09</t>
-  </si>
-  <si>
-    <t>2001-01:2023-09</t>
-  </si>
-  <si>
-    <t>2016-05:2023-09</t>
-  </si>
-  <si>
-    <t>2009-09:2023-09</t>
-  </si>
-  <si>
     <t>Wind</t>
   </si>
   <si>
     <t>2023-10-24</t>
   </si>
   <si>
-    <t>2023-10-20</t>
+    <t>1989-02:2023-10</t>
+  </si>
+  <si>
+    <t>2001-01:2023-10</t>
+  </si>
+  <si>
+    <t>2016-05:2023-10</t>
+  </si>
+  <si>
+    <t>2009-09:2023-10</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
   </si>
 </sst>
 </file>
@@ -169,8 +172,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -213,6 +216,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -221,9 +227,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="G416" sqref="G416"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -580,210 +583,210 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>33</v>
+      <c r="I8" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>32567</v>
       </c>
       <c r="B9" s="2">
@@ -812,7 +815,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>32598</v>
       </c>
       <c r="B10" s="2">
@@ -841,7 +844,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>32628</v>
       </c>
       <c r="B11" s="2">
@@ -870,7 +873,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>32659</v>
       </c>
       <c r="B12" s="2">
@@ -899,7 +902,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>32689</v>
       </c>
       <c r="B13" s="2">
@@ -928,7 +931,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>32720</v>
       </c>
       <c r="B14" s="2">
@@ -957,7 +960,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>32751</v>
       </c>
       <c r="B15" s="2">
@@ -986,7 +989,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>32781</v>
       </c>
       <c r="B16" s="2">
@@ -1015,7 +1018,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>32812</v>
       </c>
       <c r="B17" s="2">
@@ -1044,7 +1047,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>32842</v>
       </c>
       <c r="B18" s="2">
@@ -1073,7 +1076,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>32873</v>
       </c>
       <c r="B19" s="2">
@@ -1102,7 +1105,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>32904</v>
       </c>
       <c r="B20" s="2">
@@ -1131,7 +1134,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>32932</v>
       </c>
       <c r="B21" s="2">
@@ -1160,7 +1163,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>32963</v>
       </c>
       <c r="B22" s="2">
@@ -1189,7 +1192,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>32993</v>
       </c>
       <c r="B23" s="2">
@@ -1218,7 +1221,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>33024</v>
       </c>
       <c r="B24" s="2">
@@ -1247,7 +1250,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>33054</v>
       </c>
       <c r="B25" s="2">
@@ -1276,7 +1279,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>33085</v>
       </c>
       <c r="B26" s="2">
@@ -1305,7 +1308,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>33116</v>
       </c>
       <c r="B27" s="2">
@@ -1334,7 +1337,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>33146</v>
       </c>
       <c r="B28" s="2">
@@ -1363,7 +1366,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>33177</v>
       </c>
       <c r="B29" s="2">
@@ -1392,7 +1395,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>33207</v>
       </c>
       <c r="B30" s="2">
@@ -1421,7 +1424,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>33238</v>
       </c>
       <c r="B31" s="2">
@@ -1450,7 +1453,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>33269</v>
       </c>
       <c r="B32" s="2">
@@ -1479,7 +1482,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>33297</v>
       </c>
       <c r="B33" s="2">
@@ -1508,7 +1511,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>33328</v>
       </c>
       <c r="B34" s="2">
@@ -1537,7 +1540,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>33358</v>
       </c>
       <c r="B35" s="2">
@@ -1566,7 +1569,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>33389</v>
       </c>
       <c r="B36" s="2">
@@ -1595,7 +1598,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>33419</v>
       </c>
       <c r="B37" s="2">
@@ -1624,7 +1627,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>33450</v>
       </c>
       <c r="B38" s="2">
@@ -1653,7 +1656,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>33481</v>
       </c>
       <c r="B39" s="2">
@@ -1682,7 +1685,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>33511</v>
       </c>
       <c r="B40" s="2">
@@ -1711,7 +1714,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>33542</v>
       </c>
       <c r="B41" s="2">
@@ -1740,7 +1743,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>33572</v>
       </c>
       <c r="B42" s="2">
@@ -1769,7 +1772,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>33603</v>
       </c>
       <c r="B43" s="2">
@@ -1798,7 +1801,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>33634</v>
       </c>
       <c r="B44" s="2">
@@ -1827,7 +1830,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>33663</v>
       </c>
       <c r="B45" s="2">
@@ -1856,7 +1859,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>33694</v>
       </c>
       <c r="B46" s="2">
@@ -1885,7 +1888,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>33724</v>
       </c>
       <c r="B47" s="2">
@@ -1914,7 +1917,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>33755</v>
       </c>
       <c r="B48" s="2">
@@ -1943,7 +1946,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>33785</v>
       </c>
       <c r="B49" s="2">
@@ -1972,7 +1975,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>33816</v>
       </c>
       <c r="B50" s="2">
@@ -2001,7 +2004,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>33847</v>
       </c>
       <c r="B51" s="2">
@@ -2030,7 +2033,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>33877</v>
       </c>
       <c r="B52" s="2">
@@ -2059,7 +2062,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>33908</v>
       </c>
       <c r="B53" s="2">
@@ -2088,7 +2091,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>33938</v>
       </c>
       <c r="B54" s="2">
@@ -2117,7 +2120,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>33969</v>
       </c>
       <c r="B55" s="2">
@@ -2146,7 +2149,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>34000</v>
       </c>
       <c r="B56" s="2">
@@ -2175,7 +2178,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>34028</v>
       </c>
       <c r="B57" s="2">
@@ -2204,7 +2207,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>34059</v>
       </c>
       <c r="B58" s="2">
@@ -2233,7 +2236,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>34089</v>
       </c>
       <c r="B59" s="2">
@@ -2262,7 +2265,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>34120</v>
       </c>
       <c r="B60" s="2">
@@ -2291,7 +2294,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>34150</v>
       </c>
       <c r="B61" s="2">
@@ -2320,7 +2323,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>34181</v>
       </c>
       <c r="B62" s="2">
@@ -2349,7 +2352,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>34212</v>
       </c>
       <c r="B63" s="2">
@@ -2378,7 +2381,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>34242</v>
       </c>
       <c r="B64" s="2">
@@ -2407,7 +2410,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>34273</v>
       </c>
       <c r="B65" s="2">
@@ -2436,7 +2439,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>34303</v>
       </c>
       <c r="B66" s="2">
@@ -2465,7 +2468,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>34334</v>
       </c>
       <c r="B67" s="2">
@@ -2494,7 +2497,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>34365</v>
       </c>
       <c r="B68" s="2">
@@ -2523,7 +2526,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>34393</v>
       </c>
       <c r="B69" s="2">
@@ -2552,7 +2555,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>34424</v>
       </c>
       <c r="B70" s="2">
@@ -2581,7 +2584,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>34454</v>
       </c>
       <c r="B71" s="2">
@@ -2610,7 +2613,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>34485</v>
       </c>
       <c r="B72" s="2">
@@ -2639,7 +2642,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>34515</v>
       </c>
       <c r="B73" s="2">
@@ -2668,7 +2671,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>34546</v>
       </c>
       <c r="B74" s="2">
@@ -2697,7 +2700,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="5">
+      <c r="A75" s="3">
         <v>34577</v>
       </c>
       <c r="B75" s="2">
@@ -2726,7 +2729,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>34607</v>
       </c>
       <c r="B76" s="2">
@@ -2755,7 +2758,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <v>34638</v>
       </c>
       <c r="B77" s="2">
@@ -2784,7 +2787,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>34668</v>
       </c>
       <c r="B78" s="2">
@@ -2813,7 +2816,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="5">
+      <c r="A79" s="3">
         <v>34699</v>
       </c>
       <c r="B79" s="2">
@@ -2842,7 +2845,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>34730</v>
       </c>
       <c r="B80" s="2">
@@ -2871,7 +2874,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="5">
+      <c r="A81" s="3">
         <v>34758</v>
       </c>
       <c r="B81" s="2">
@@ -2900,7 +2903,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="5">
+      <c r="A82" s="3">
         <v>34789</v>
       </c>
       <c r="B82" s="2">
@@ -2929,7 +2932,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="5">
+      <c r="A83" s="3">
         <v>34819</v>
       </c>
       <c r="B83" s="2">
@@ -2958,7 +2961,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="5">
+      <c r="A84" s="3">
         <v>34850</v>
       </c>
       <c r="B84" s="2">
@@ -2987,7 +2990,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="5">
+      <c r="A85" s="3">
         <v>34880</v>
       </c>
       <c r="B85" s="2">
@@ -3016,7 +3019,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="5">
+      <c r="A86" s="3">
         <v>34911</v>
       </c>
       <c r="B86" s="2">
@@ -3045,7 +3048,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="5">
+      <c r="A87" s="3">
         <v>34942</v>
       </c>
       <c r="B87" s="2">
@@ -3074,7 +3077,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="5">
+      <c r="A88" s="3">
         <v>34972</v>
       </c>
       <c r="B88" s="2">
@@ -3103,7 +3106,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="5">
+      <c r="A89" s="3">
         <v>35003</v>
       </c>
       <c r="B89" s="2">
@@ -3132,7 +3135,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="5">
+      <c r="A90" s="3">
         <v>35033</v>
       </c>
       <c r="B90" s="2">
@@ -3161,7 +3164,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="5">
+      <c r="A91" s="3">
         <v>35064</v>
       </c>
       <c r="B91" s="2">
@@ -3190,7 +3193,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="5">
+      <c r="A92" s="3">
         <v>35095</v>
       </c>
       <c r="B92" s="2">
@@ -3219,7 +3222,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="5">
+      <c r="A93" s="3">
         <v>35124</v>
       </c>
       <c r="B93" s="2">
@@ -3248,7 +3251,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="5">
+      <c r="A94" s="3">
         <v>35155</v>
       </c>
       <c r="B94" s="2">
@@ -3277,7 +3280,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="5">
+      <c r="A95" s="3">
         <v>35185</v>
       </c>
       <c r="B95" s="2">
@@ -3306,7 +3309,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="5">
+      <c r="A96" s="3">
         <v>35216</v>
       </c>
       <c r="B96" s="2">
@@ -3335,7 +3338,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="5">
+      <c r="A97" s="3">
         <v>35246</v>
       </c>
       <c r="B97" s="2">
@@ -3364,7 +3367,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="5">
+      <c r="A98" s="3">
         <v>35277</v>
       </c>
       <c r="B98" s="2">
@@ -3393,7 +3396,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="5">
+      <c r="A99" s="3">
         <v>35308</v>
       </c>
       <c r="B99" s="2">
@@ -3422,7 +3425,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="5">
+      <c r="A100" s="3">
         <v>35338</v>
       </c>
       <c r="B100" s="2">
@@ -3451,7 +3454,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="5">
+      <c r="A101" s="3">
         <v>35369</v>
       </c>
       <c r="B101" s="2">
@@ -3480,7 +3483,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="5">
+      <c r="A102" s="3">
         <v>35399</v>
       </c>
       <c r="B102" s="2">
@@ -3509,7 +3512,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="5">
+      <c r="A103" s="3">
         <v>35430</v>
       </c>
       <c r="B103" s="2">
@@ -3538,7 +3541,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="5">
+      <c r="A104" s="3">
         <v>35461</v>
       </c>
       <c r="B104" s="2">
@@ -3567,7 +3570,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="5">
+      <c r="A105" s="3">
         <v>35489</v>
       </c>
       <c r="B105" s="2">
@@ -3596,7 +3599,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="5">
+      <c r="A106" s="3">
         <v>35520</v>
       </c>
       <c r="B106" s="2">
@@ -3625,7 +3628,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="5">
+      <c r="A107" s="3">
         <v>35550</v>
       </c>
       <c r="B107" s="2">
@@ -3654,7 +3657,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="5">
+      <c r="A108" s="3">
         <v>35581</v>
       </c>
       <c r="B108" s="2">
@@ -3683,7 +3686,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="5">
+      <c r="A109" s="3">
         <v>35611</v>
       </c>
       <c r="B109" s="2">
@@ -3712,7 +3715,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="5">
+      <c r="A110" s="3">
         <v>35642</v>
       </c>
       <c r="B110" s="2">
@@ -3741,7 +3744,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="5">
+      <c r="A111" s="3">
         <v>35673</v>
       </c>
       <c r="B111" s="2">
@@ -3770,7 +3773,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="5">
+      <c r="A112" s="3">
         <v>35703</v>
       </c>
       <c r="B112" s="2">
@@ -3799,7 +3802,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="5">
+      <c r="A113" s="3">
         <v>35734</v>
       </c>
       <c r="B113" s="2">
@@ -3828,7 +3831,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="5">
+      <c r="A114" s="3">
         <v>35764</v>
       </c>
       <c r="B114" s="2">
@@ -3857,7 +3860,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="5">
+      <c r="A115" s="3">
         <v>35795</v>
       </c>
       <c r="B115" s="2">
@@ -3886,7 +3889,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="5">
+      <c r="A116" s="3">
         <v>35826</v>
       </c>
       <c r="B116" s="2">
@@ -3915,7 +3918,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="5">
+      <c r="A117" s="3">
         <v>35854</v>
       </c>
       <c r="B117" s="2">
@@ -3944,7 +3947,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="5">
+      <c r="A118" s="3">
         <v>35885</v>
       </c>
       <c r="B118" s="2">
@@ -3973,7 +3976,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="5">
+      <c r="A119" s="3">
         <v>35915</v>
       </c>
       <c r="B119" s="2">
@@ -4002,7 +4005,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="5">
+      <c r="A120" s="3">
         <v>35946</v>
       </c>
       <c r="B120" s="2">
@@ -4031,7 +4034,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="5">
+      <c r="A121" s="3">
         <v>35976</v>
       </c>
       <c r="B121" s="2">
@@ -4060,7 +4063,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="5">
+      <c r="A122" s="3">
         <v>36007</v>
       </c>
       <c r="B122" s="2">
@@ -4089,7 +4092,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="5">
+      <c r="A123" s="3">
         <v>36038</v>
       </c>
       <c r="B123" s="2">
@@ -4118,7 +4121,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="5">
+      <c r="A124" s="3">
         <v>36068</v>
       </c>
       <c r="B124" s="2">
@@ -4147,7 +4150,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="5">
+      <c r="A125" s="3">
         <v>36099</v>
       </c>
       <c r="B125" s="2">
@@ -4176,7 +4179,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="5">
+      <c r="A126" s="3">
         <v>36129</v>
       </c>
       <c r="B126" s="2">
@@ -4205,7 +4208,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="5">
+      <c r="A127" s="3">
         <v>36160</v>
       </c>
       <c r="B127" s="2">
@@ -4234,7 +4237,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="5">
+      <c r="A128" s="3">
         <v>36191</v>
       </c>
       <c r="B128" s="2">
@@ -4263,7 +4266,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="5">
+      <c r="A129" s="3">
         <v>36219</v>
       </c>
       <c r="B129" s="2">
@@ -4292,7 +4295,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="5">
+      <c r="A130" s="3">
         <v>36250</v>
       </c>
       <c r="B130" s="2">
@@ -4321,7 +4324,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="5">
+      <c r="A131" s="3">
         <v>36280</v>
       </c>
       <c r="B131" s="2">
@@ -4350,7 +4353,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="5">
+      <c r="A132" s="3">
         <v>36311</v>
       </c>
       <c r="B132" s="2">
@@ -4379,7 +4382,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="5">
+      <c r="A133" s="3">
         <v>36341</v>
       </c>
       <c r="B133" s="2">
@@ -4408,7 +4411,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="5">
+      <c r="A134" s="3">
         <v>36372</v>
       </c>
       <c r="B134" s="2">
@@ -4437,7 +4440,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="5">
+      <c r="A135" s="3">
         <v>36403</v>
       </c>
       <c r="B135" s="2">
@@ -4466,7 +4469,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="5">
+      <c r="A136" s="3">
         <v>36433</v>
       </c>
       <c r="B136" s="2">
@@ -4495,7 +4498,7 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="5">
+      <c r="A137" s="3">
         <v>36464</v>
       </c>
       <c r="B137" s="2">
@@ -4524,7 +4527,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="5">
+      <c r="A138" s="3">
         <v>36494</v>
       </c>
       <c r="B138" s="2">
@@ -4553,7 +4556,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="5">
+      <c r="A139" s="3">
         <v>36525</v>
       </c>
       <c r="B139" s="2">
@@ -4582,7 +4585,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="5">
+      <c r="A140" s="3">
         <v>36556</v>
       </c>
       <c r="B140" s="2">
@@ -4611,7 +4614,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="5">
+      <c r="A141" s="3">
         <v>36585</v>
       </c>
       <c r="B141" s="2">
@@ -4640,7 +4643,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="5">
+      <c r="A142" s="3">
         <v>36616</v>
       </c>
       <c r="B142" s="2">
@@ -4669,7 +4672,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="5">
+      <c r="A143" s="3">
         <v>36646</v>
       </c>
       <c r="B143" s="2">
@@ -4698,7 +4701,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="5">
+      <c r="A144" s="3">
         <v>36677</v>
       </c>
       <c r="B144" s="2">
@@ -4727,7 +4730,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="5">
+      <c r="A145" s="3">
         <v>36707</v>
       </c>
       <c r="B145" s="2">
@@ -4756,7 +4759,7 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="5">
+      <c r="A146" s="3">
         <v>36738</v>
       </c>
       <c r="B146" s="2">
@@ -4785,7 +4788,7 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="5">
+      <c r="A147" s="3">
         <v>36769</v>
       </c>
       <c r="B147" s="2">
@@ -4814,7 +4817,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="5">
+      <c r="A148" s="3">
         <v>36799</v>
       </c>
       <c r="B148" s="2">
@@ -4843,7 +4846,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="5">
+      <c r="A149" s="3">
         <v>36830</v>
       </c>
       <c r="B149" s="2">
@@ -4872,7 +4875,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="5">
+      <c r="A150" s="3">
         <v>36860</v>
       </c>
       <c r="B150" s="2">
@@ -4901,7 +4904,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="5">
+      <c r="A151" s="3">
         <v>36891</v>
       </c>
       <c r="B151" s="2">
@@ -4930,7 +4933,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="5">
+      <c r="A152" s="3">
         <v>36922</v>
       </c>
       <c r="B152" s="2">
@@ -4959,7 +4962,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="5">
+      <c r="A153" s="3">
         <v>36950</v>
       </c>
       <c r="B153" s="2">
@@ -4988,7 +4991,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="5">
+      <c r="A154" s="3">
         <v>36981</v>
       </c>
       <c r="B154" s="2">
@@ -5017,7 +5020,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="5">
+      <c r="A155" s="3">
         <v>37011</v>
       </c>
       <c r="B155" s="2">
@@ -5046,7 +5049,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="5">
+      <c r="A156" s="3">
         <v>37042</v>
       </c>
       <c r="B156" s="2">
@@ -5075,7 +5078,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="5">
+      <c r="A157" s="3">
         <v>37072</v>
       </c>
       <c r="B157" s="2">
@@ -5104,7 +5107,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="5">
+      <c r="A158" s="3">
         <v>37103</v>
       </c>
       <c r="B158" s="2">
@@ -5133,7 +5136,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="5">
+      <c r="A159" s="3">
         <v>37134</v>
       </c>
       <c r="B159" s="2">
@@ -5162,7 +5165,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="5">
+      <c r="A160" s="3">
         <v>37164</v>
       </c>
       <c r="B160" s="2">
@@ -5191,7 +5194,7 @@
       </c>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="5">
+      <c r="A161" s="3">
         <v>37195</v>
       </c>
       <c r="B161" s="2">
@@ -5220,7 +5223,7 @@
       </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="5">
+      <c r="A162" s="3">
         <v>37225</v>
       </c>
       <c r="B162" s="2">
@@ -5249,7 +5252,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="5">
+      <c r="A163" s="3">
         <v>37256</v>
       </c>
       <c r="B163" s="2">
@@ -5278,7 +5281,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="5">
+      <c r="A164" s="3">
         <v>37287</v>
       </c>
       <c r="B164" s="2">
@@ -5307,7 +5310,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="5">
+      <c r="A165" s="3">
         <v>37315</v>
       </c>
       <c r="B165" s="2">
@@ -5336,7 +5339,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="5">
+      <c r="A166" s="3">
         <v>37346</v>
       </c>
       <c r="B166" s="2">
@@ -5365,7 +5368,7 @@
       </c>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="5">
+      <c r="A167" s="3">
         <v>37376</v>
       </c>
       <c r="B167" s="2">
@@ -5394,7 +5397,7 @@
       </c>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="5">
+      <c r="A168" s="3">
         <v>37407</v>
       </c>
       <c r="B168" s="2">
@@ -5423,7 +5426,7 @@
       </c>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="5">
+      <c r="A169" s="3">
         <v>37437</v>
       </c>
       <c r="B169" s="2">
@@ -5452,7 +5455,7 @@
       </c>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="5">
+      <c r="A170" s="3">
         <v>37468</v>
       </c>
       <c r="B170" s="2">
@@ -5481,7 +5484,7 @@
       </c>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="5">
+      <c r="A171" s="3">
         <v>37499</v>
       </c>
       <c r="B171" s="2">
@@ -5510,7 +5513,7 @@
       </c>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="5">
+      <c r="A172" s="3">
         <v>37529</v>
       </c>
       <c r="B172" s="2">
@@ -5539,7 +5542,7 @@
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="5">
+      <c r="A173" s="3">
         <v>37560</v>
       </c>
       <c r="B173" s="2">
@@ -5568,7 +5571,7 @@
       </c>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="5">
+      <c r="A174" s="3">
         <v>37590</v>
       </c>
       <c r="B174" s="2">
@@ -5597,7 +5600,7 @@
       </c>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="5">
+      <c r="A175" s="3">
         <v>37621</v>
       </c>
       <c r="B175" s="2">
@@ -5626,7 +5629,7 @@
       </c>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="5">
+      <c r="A176" s="3">
         <v>37652</v>
       </c>
       <c r="B176" s="2">
@@ -5655,7 +5658,7 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="5">
+      <c r="A177" s="3">
         <v>37680</v>
       </c>
       <c r="B177" s="2">
@@ -5684,7 +5687,7 @@
       </c>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="5">
+      <c r="A178" s="3">
         <v>37711</v>
       </c>
       <c r="B178" s="2">
@@ -5713,7 +5716,7 @@
       </c>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="5">
+      <c r="A179" s="3">
         <v>37741</v>
       </c>
       <c r="B179" s="2">
@@ -5742,7 +5745,7 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="5">
+      <c r="A180" s="3">
         <v>37772</v>
       </c>
       <c r="B180" s="2">
@@ -5771,7 +5774,7 @@
       </c>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="5">
+      <c r="A181" s="3">
         <v>37802</v>
       </c>
       <c r="B181" s="2">
@@ -5800,7 +5803,7 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="5">
+      <c r="A182" s="3">
         <v>37833</v>
       </c>
       <c r="B182" s="2">
@@ -5829,7 +5832,7 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="5">
+      <c r="A183" s="3">
         <v>37864</v>
       </c>
       <c r="B183" s="2">
@@ -5858,7 +5861,7 @@
       </c>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="5">
+      <c r="A184" s="3">
         <v>37894</v>
       </c>
       <c r="B184" s="2">
@@ -5887,7 +5890,7 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="5">
+      <c r="A185" s="3">
         <v>37925</v>
       </c>
       <c r="B185" s="2">
@@ -5916,7 +5919,7 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="5">
+      <c r="A186" s="3">
         <v>37955</v>
       </c>
       <c r="B186" s="2">
@@ -5945,7 +5948,7 @@
       </c>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="5">
+      <c r="A187" s="3">
         <v>37986</v>
       </c>
       <c r="B187" s="2">
@@ -5974,7 +5977,7 @@
       </c>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="5">
+      <c r="A188" s="3">
         <v>38017</v>
       </c>
       <c r="B188" s="2">
@@ -6003,7 +6006,7 @@
       </c>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="5">
+      <c r="A189" s="3">
         <v>38046</v>
       </c>
       <c r="B189" s="2">
@@ -6032,7 +6035,7 @@
       </c>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="5">
+      <c r="A190" s="3">
         <v>38077</v>
       </c>
       <c r="B190" s="2">
@@ -6061,7 +6064,7 @@
       </c>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="5">
+      <c r="A191" s="3">
         <v>38107</v>
       </c>
       <c r="B191" s="2">
@@ -6090,7 +6093,7 @@
       </c>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="5">
+      <c r="A192" s="3">
         <v>38138</v>
       </c>
       <c r="B192" s="2">
@@ -6119,7 +6122,7 @@
       </c>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="5">
+      <c r="A193" s="3">
         <v>38168</v>
       </c>
       <c r="B193" s="2">
@@ -6148,7 +6151,7 @@
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="5">
+      <c r="A194" s="3">
         <v>38199</v>
       </c>
       <c r="B194" s="2">
@@ -6177,7 +6180,7 @@
       </c>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="5">
+      <c r="A195" s="3">
         <v>38230</v>
       </c>
       <c r="B195" s="2">
@@ -6206,7 +6209,7 @@
       </c>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="5">
+      <c r="A196" s="3">
         <v>38260</v>
       </c>
       <c r="B196" s="2">
@@ -6235,7 +6238,7 @@
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="5">
+      <c r="A197" s="3">
         <v>38291</v>
       </c>
       <c r="B197" s="2">
@@ -6264,7 +6267,7 @@
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="5">
+      <c r="A198" s="3">
         <v>38321</v>
       </c>
       <c r="B198" s="2">
@@ -6293,7 +6296,7 @@
       </c>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="5">
+      <c r="A199" s="3">
         <v>38352</v>
       </c>
       <c r="B199" s="2">
@@ -6322,7 +6325,7 @@
       </c>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="5">
+      <c r="A200" s="3">
         <v>38383</v>
       </c>
       <c r="B200" s="2">
@@ -6351,7 +6354,7 @@
       </c>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="5">
+      <c r="A201" s="3">
         <v>38411</v>
       </c>
       <c r="B201" s="2">
@@ -6380,7 +6383,7 @@
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="5">
+      <c r="A202" s="3">
         <v>38442</v>
       </c>
       <c r="B202" s="2">
@@ -6409,7 +6412,7 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="5">
+      <c r="A203" s="3">
         <v>38472</v>
       </c>
       <c r="B203" s="2">
@@ -6438,7 +6441,7 @@
       </c>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" s="5">
+      <c r="A204" s="3">
         <v>38503</v>
       </c>
       <c r="B204" s="2">
@@ -6467,7 +6470,7 @@
       </c>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205" s="5">
+      <c r="A205" s="3">
         <v>38533</v>
       </c>
       <c r="B205" s="2">
@@ -6496,7 +6499,7 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="5">
+      <c r="A206" s="3">
         <v>38564</v>
       </c>
       <c r="B206" s="2">
@@ -6525,7 +6528,7 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="5">
+      <c r="A207" s="3">
         <v>38595</v>
       </c>
       <c r="B207" s="2">
@@ -6554,7 +6557,7 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="5">
+      <c r="A208" s="3">
         <v>38625</v>
       </c>
       <c r="B208" s="2">
@@ -6583,7 +6586,7 @@
       </c>
     </row>
     <row r="209" spans="1:9">
-      <c r="A209" s="5">
+      <c r="A209" s="3">
         <v>38656</v>
       </c>
       <c r="B209" s="2">
@@ -6612,7 +6615,7 @@
       </c>
     </row>
     <row r="210" spans="1:9">
-      <c r="A210" s="5">
+      <c r="A210" s="3">
         <v>38686</v>
       </c>
       <c r="B210" s="2">
@@ -6641,7 +6644,7 @@
       </c>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="5">
+      <c r="A211" s="3">
         <v>38717</v>
       </c>
       <c r="B211" s="2">
@@ -6670,7 +6673,7 @@
       </c>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="5">
+      <c r="A212" s="3">
         <v>38748</v>
       </c>
       <c r="B212" s="2">
@@ -6699,7 +6702,7 @@
       </c>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="5">
+      <c r="A213" s="3">
         <v>38776</v>
       </c>
       <c r="B213" s="2">
@@ -6728,7 +6731,7 @@
       </c>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="5">
+      <c r="A214" s="3">
         <v>38807</v>
       </c>
       <c r="B214" s="2">
@@ -6757,7 +6760,7 @@
       </c>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="5">
+      <c r="A215" s="3">
         <v>38837</v>
       </c>
       <c r="B215" s="2">
@@ -6786,7 +6789,7 @@
       </c>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="5">
+      <c r="A216" s="3">
         <v>38868</v>
       </c>
       <c r="B216" s="2">
@@ -6815,7 +6818,7 @@
       </c>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="5">
+      <c r="A217" s="3">
         <v>38898</v>
       </c>
       <c r="B217" s="2">
@@ -6844,7 +6847,7 @@
       </c>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="5">
+      <c r="A218" s="3">
         <v>38929</v>
       </c>
       <c r="B218" s="2">
@@ -6873,7 +6876,7 @@
       </c>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="5">
+      <c r="A219" s="3">
         <v>38960</v>
       </c>
       <c r="B219" s="2">
@@ -6902,7 +6905,7 @@
       </c>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="5">
+      <c r="A220" s="3">
         <v>38990</v>
       </c>
       <c r="B220" s="2">
@@ -6931,7 +6934,7 @@
       </c>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="5">
+      <c r="A221" s="3">
         <v>39021</v>
       </c>
       <c r="B221" s="2">
@@ -6960,7 +6963,7 @@
       </c>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="5">
+      <c r="A222" s="3">
         <v>39051</v>
       </c>
       <c r="B222" s="2">
@@ -6989,7 +6992,7 @@
       </c>
     </row>
     <row r="223" spans="1:9">
-      <c r="A223" s="5">
+      <c r="A223" s="3">
         <v>39082</v>
       </c>
       <c r="B223" s="2">
@@ -7018,7 +7021,7 @@
       </c>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="5">
+      <c r="A224" s="3">
         <v>39113</v>
       </c>
       <c r="B224" s="2">
@@ -7047,7 +7050,7 @@
       </c>
     </row>
     <row r="225" spans="1:9">
-      <c r="A225" s="5">
+      <c r="A225" s="3">
         <v>39141</v>
       </c>
       <c r="B225" s="2">
@@ -7076,7 +7079,7 @@
       </c>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="5">
+      <c r="A226" s="3">
         <v>39172</v>
       </c>
       <c r="B226" s="2">
@@ -7105,7 +7108,7 @@
       </c>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="5">
+      <c r="A227" s="3">
         <v>39202</v>
       </c>
       <c r="B227" s="2">
@@ -7134,7 +7137,7 @@
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="5">
+      <c r="A228" s="3">
         <v>39233</v>
       </c>
       <c r="B228" s="2">
@@ -7163,7 +7166,7 @@
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="5">
+      <c r="A229" s="3">
         <v>39263</v>
       </c>
       <c r="B229" s="2">
@@ -7192,7 +7195,7 @@
       </c>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="5">
+      <c r="A230" s="3">
         <v>39294</v>
       </c>
       <c r="B230" s="2">
@@ -7221,7 +7224,7 @@
       </c>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="5">
+      <c r="A231" s="3">
         <v>39325</v>
       </c>
       <c r="B231" s="2">
@@ -7250,7 +7253,7 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="5">
+      <c r="A232" s="3">
         <v>39355</v>
       </c>
       <c r="B232" s="2">
@@ -7279,7 +7282,7 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="5">
+      <c r="A233" s="3">
         <v>39386</v>
       </c>
       <c r="B233" s="2">
@@ -7308,7 +7311,7 @@
       </c>
     </row>
     <row r="234" spans="1:9">
-      <c r="A234" s="5">
+      <c r="A234" s="3">
         <v>39416</v>
       </c>
       <c r="B234" s="2">
@@ -7337,7 +7340,7 @@
       </c>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="5">
+      <c r="A235" s="3">
         <v>39447</v>
       </c>
       <c r="B235" s="2">
@@ -7366,7 +7369,7 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="5">
+      <c r="A236" s="3">
         <v>39478</v>
       </c>
       <c r="B236" s="2">
@@ -7395,7 +7398,7 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="5">
+      <c r="A237" s="3">
         <v>39507</v>
       </c>
       <c r="B237" s="2">
@@ -7424,7 +7427,7 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="5">
+      <c r="A238" s="3">
         <v>39538</v>
       </c>
       <c r="B238" s="2">
@@ -7453,7 +7456,7 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="5">
+      <c r="A239" s="3">
         <v>39568</v>
       </c>
       <c r="B239" s="2">
@@ -7482,7 +7485,7 @@
       </c>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="5">
+      <c r="A240" s="3">
         <v>39599</v>
       </c>
       <c r="B240" s="2">
@@ -7511,7 +7514,7 @@
       </c>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="5">
+      <c r="A241" s="3">
         <v>39629</v>
       </c>
       <c r="B241" s="2">
@@ -7540,7 +7543,7 @@
       </c>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="5">
+      <c r="A242" s="3">
         <v>39660</v>
       </c>
       <c r="B242" s="2">
@@ -7569,7 +7572,7 @@
       </c>
     </row>
     <row r="243" spans="1:9">
-      <c r="A243" s="5">
+      <c r="A243" s="3">
         <v>39691</v>
       </c>
       <c r="B243" s="2">
@@ -7598,7 +7601,7 @@
       </c>
     </row>
     <row r="244" spans="1:9">
-      <c r="A244" s="5">
+      <c r="A244" s="3">
         <v>39721</v>
       </c>
       <c r="B244" s="2">
@@ -7627,7 +7630,7 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="5">
+      <c r="A245" s="3">
         <v>39752</v>
       </c>
       <c r="B245" s="2">
@@ -7656,7 +7659,7 @@
       </c>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="5">
+      <c r="A246" s="3">
         <v>39782</v>
       </c>
       <c r="B246" s="2">
@@ -7685,7 +7688,7 @@
       </c>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="5">
+      <c r="A247" s="3">
         <v>39813</v>
       </c>
       <c r="B247" s="2">
@@ -7714,7 +7717,7 @@
       </c>
     </row>
     <row r="248" spans="1:9">
-      <c r="A248" s="5">
+      <c r="A248" s="3">
         <v>39844</v>
       </c>
       <c r="B248" s="2">
@@ -7743,7 +7746,7 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="5">
+      <c r="A249" s="3">
         <v>39872</v>
       </c>
       <c r="B249" s="2">
@@ -7772,7 +7775,7 @@
       </c>
     </row>
     <row r="250" spans="1:9">
-      <c r="A250" s="5">
+      <c r="A250" s="3">
         <v>39903</v>
       </c>
       <c r="B250" s="2">
@@ -7801,7 +7804,7 @@
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="5">
+      <c r="A251" s="3">
         <v>39933</v>
       </c>
       <c r="B251" s="2">
@@ -7830,7 +7833,7 @@
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="5">
+      <c r="A252" s="3">
         <v>39964</v>
       </c>
       <c r="B252" s="2">
@@ -7859,7 +7862,7 @@
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="5">
+      <c r="A253" s="3">
         <v>39994</v>
       </c>
       <c r="B253" s="2">
@@ -7888,7 +7891,7 @@
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="5">
+      <c r="A254" s="3">
         <v>40025</v>
       </c>
       <c r="B254" s="2">
@@ -7917,7 +7920,7 @@
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="5">
+      <c r="A255" s="3">
         <v>40056</v>
       </c>
       <c r="B255" s="2">
@@ -7946,7 +7949,7 @@
       </c>
     </row>
     <row r="256" spans="1:9">
-      <c r="A256" s="5">
+      <c r="A256" s="3">
         <v>40086</v>
       </c>
       <c r="B256" s="2">
@@ -7975,7 +7978,7 @@
       </c>
     </row>
     <row r="257" spans="1:9">
-      <c r="A257" s="5">
+      <c r="A257" s="3">
         <v>40117</v>
       </c>
       <c r="B257" s="2">
@@ -8004,7 +8007,7 @@
       </c>
     </row>
     <row r="258" spans="1:9">
-      <c r="A258" s="5">
+      <c r="A258" s="3">
         <v>40147</v>
       </c>
       <c r="B258" s="2">
@@ -8033,7 +8036,7 @@
       </c>
     </row>
     <row r="259" spans="1:9">
-      <c r="A259" s="5">
+      <c r="A259" s="3">
         <v>40178</v>
       </c>
       <c r="B259" s="2">
@@ -8062,7 +8065,7 @@
       </c>
     </row>
     <row r="260" spans="1:9">
-      <c r="A260" s="5">
+      <c r="A260" s="3">
         <v>40209</v>
       </c>
       <c r="B260" s="2">
@@ -8091,7 +8094,7 @@
       </c>
     </row>
     <row r="261" spans="1:9">
-      <c r="A261" s="5">
+      <c r="A261" s="3">
         <v>40237</v>
       </c>
       <c r="B261" s="2">
@@ -8120,7 +8123,7 @@
       </c>
     </row>
     <row r="262" spans="1:9">
-      <c r="A262" s="5">
+      <c r="A262" s="3">
         <v>40268</v>
       </c>
       <c r="B262" s="2">
@@ -8149,7 +8152,7 @@
       </c>
     </row>
     <row r="263" spans="1:9">
-      <c r="A263" s="5">
+      <c r="A263" s="3">
         <v>40298</v>
       </c>
       <c r="B263" s="2">
@@ -8178,7 +8181,7 @@
       </c>
     </row>
     <row r="264" spans="1:9">
-      <c r="A264" s="5">
+      <c r="A264" s="3">
         <v>40329</v>
       </c>
       <c r="B264" s="2">
@@ -8207,7 +8210,7 @@
       </c>
     </row>
     <row r="265" spans="1:9">
-      <c r="A265" s="5">
+      <c r="A265" s="3">
         <v>40359</v>
       </c>
       <c r="B265" s="2">
@@ -8236,7 +8239,7 @@
       </c>
     </row>
     <row r="266" spans="1:9">
-      <c r="A266" s="5">
+      <c r="A266" s="3">
         <v>40390</v>
       </c>
       <c r="B266" s="2">
@@ -8265,7 +8268,7 @@
       </c>
     </row>
     <row r="267" spans="1:9">
-      <c r="A267" s="5">
+      <c r="A267" s="3">
         <v>40421</v>
       </c>
       <c r="B267" s="2">
@@ -8294,7 +8297,7 @@
       </c>
     </row>
     <row r="268" spans="1:9">
-      <c r="A268" s="5">
+      <c r="A268" s="3">
         <v>40451</v>
       </c>
       <c r="B268" s="2">
@@ -8323,7 +8326,7 @@
       </c>
     </row>
     <row r="269" spans="1:9">
-      <c r="A269" s="5">
+      <c r="A269" s="3">
         <v>40482</v>
       </c>
       <c r="B269" s="2">
@@ -8352,7 +8355,7 @@
       </c>
     </row>
     <row r="270" spans="1:9">
-      <c r="A270" s="5">
+      <c r="A270" s="3">
         <v>40512</v>
       </c>
       <c r="B270" s="2">
@@ -8381,7 +8384,7 @@
       </c>
     </row>
     <row r="271" spans="1:9">
-      <c r="A271" s="5">
+      <c r="A271" s="3">
         <v>40543</v>
       </c>
       <c r="B271" s="2">
@@ -8410,7 +8413,7 @@
       </c>
     </row>
     <row r="272" spans="1:9">
-      <c r="A272" s="5">
+      <c r="A272" s="3">
         <v>40574</v>
       </c>
       <c r="B272" s="2">
@@ -8439,7 +8442,7 @@
       </c>
     </row>
     <row r="273" spans="1:9">
-      <c r="A273" s="5">
+      <c r="A273" s="3">
         <v>40602</v>
       </c>
       <c r="B273" s="2">
@@ -8468,7 +8471,7 @@
       </c>
     </row>
     <row r="274" spans="1:9">
-      <c r="A274" s="5">
+      <c r="A274" s="3">
         <v>40633</v>
       </c>
       <c r="B274" s="2">
@@ -8497,7 +8500,7 @@
       </c>
     </row>
     <row r="275" spans="1:9">
-      <c r="A275" s="5">
+      <c r="A275" s="3">
         <v>40663</v>
       </c>
       <c r="B275" s="2">
@@ -8526,7 +8529,7 @@
       </c>
     </row>
     <row r="276" spans="1:9">
-      <c r="A276" s="5">
+      <c r="A276" s="3">
         <v>40694</v>
       </c>
       <c r="B276" s="2">
@@ -8555,7 +8558,7 @@
       </c>
     </row>
     <row r="277" spans="1:9">
-      <c r="A277" s="5">
+      <c r="A277" s="3">
         <v>40724</v>
       </c>
       <c r="B277" s="2">
@@ -8584,7 +8587,7 @@
       </c>
     </row>
     <row r="278" spans="1:9">
-      <c r="A278" s="5">
+      <c r="A278" s="3">
         <v>40755</v>
       </c>
       <c r="B278" s="2">
@@ -8613,7 +8616,7 @@
       </c>
     </row>
     <row r="279" spans="1:9">
-      <c r="A279" s="5">
+      <c r="A279" s="3">
         <v>40786</v>
       </c>
       <c r="B279" s="2">
@@ -8642,7 +8645,7 @@
       </c>
     </row>
     <row r="280" spans="1:9">
-      <c r="A280" s="5">
+      <c r="A280" s="3">
         <v>40816</v>
       </c>
       <c r="B280" s="2">
@@ -8671,7 +8674,7 @@
       </c>
     </row>
     <row r="281" spans="1:9">
-      <c r="A281" s="5">
+      <c r="A281" s="3">
         <v>40847</v>
       </c>
       <c r="B281" s="2">
@@ -8700,7 +8703,7 @@
       </c>
     </row>
     <row r="282" spans="1:9">
-      <c r="A282" s="5">
+      <c r="A282" s="3">
         <v>40877</v>
       </c>
       <c r="B282" s="2">
@@ -8729,7 +8732,7 @@
       </c>
     </row>
     <row r="283" spans="1:9">
-      <c r="A283" s="5">
+      <c r="A283" s="3">
         <v>40908</v>
       </c>
       <c r="B283" s="2">
@@ -8758,7 +8761,7 @@
       </c>
     </row>
     <row r="284" spans="1:9">
-      <c r="A284" s="5">
+      <c r="A284" s="3">
         <v>40939</v>
       </c>
       <c r="B284" s="2">
@@ -8787,7 +8790,7 @@
       </c>
     </row>
     <row r="285" spans="1:9">
-      <c r="A285" s="5">
+      <c r="A285" s="3">
         <v>40968</v>
       </c>
       <c r="B285" s="2">
@@ -8816,7 +8819,7 @@
       </c>
     </row>
     <row r="286" spans="1:9">
-      <c r="A286" s="5">
+      <c r="A286" s="3">
         <v>40999</v>
       </c>
       <c r="B286" s="2">
@@ -8845,7 +8848,7 @@
       </c>
     </row>
     <row r="287" spans="1:9">
-      <c r="A287" s="5">
+      <c r="A287" s="3">
         <v>41029</v>
       </c>
       <c r="B287" s="2">
@@ -8874,7 +8877,7 @@
       </c>
     </row>
     <row r="288" spans="1:9">
-      <c r="A288" s="5">
+      <c r="A288" s="3">
         <v>41060</v>
       </c>
       <c r="B288" s="2">
@@ -8903,7 +8906,7 @@
       </c>
     </row>
     <row r="289" spans="1:9">
-      <c r="A289" s="5">
+      <c r="A289" s="3">
         <v>41090</v>
       </c>
       <c r="B289" s="2">
@@ -8932,7 +8935,7 @@
       </c>
     </row>
     <row r="290" spans="1:9">
-      <c r="A290" s="5">
+      <c r="A290" s="3">
         <v>41121</v>
       </c>
       <c r="B290" s="2">
@@ -8961,7 +8964,7 @@
       </c>
     </row>
     <row r="291" spans="1:9">
-      <c r="A291" s="5">
+      <c r="A291" s="3">
         <v>41152</v>
       </c>
       <c r="B291" s="2">
@@ -8990,7 +8993,7 @@
       </c>
     </row>
     <row r="292" spans="1:9">
-      <c r="A292" s="5">
+      <c r="A292" s="3">
         <v>41182</v>
       </c>
       <c r="B292" s="2">
@@ -9019,7 +9022,7 @@
       </c>
     </row>
     <row r="293" spans="1:9">
-      <c r="A293" s="5">
+      <c r="A293" s="3">
         <v>41213</v>
       </c>
       <c r="B293" s="2">
@@ -9048,7 +9051,7 @@
       </c>
     </row>
     <row r="294" spans="1:9">
-      <c r="A294" s="5">
+      <c r="A294" s="3">
         <v>41243</v>
       </c>
       <c r="B294" s="2">
@@ -9077,7 +9080,7 @@
       </c>
     </row>
     <row r="295" spans="1:9">
-      <c r="A295" s="5">
+      <c r="A295" s="3">
         <v>41274</v>
       </c>
       <c r="B295" s="2">
@@ -9106,7 +9109,7 @@
       </c>
     </row>
     <row r="296" spans="1:9">
-      <c r="A296" s="5">
+      <c r="A296" s="3">
         <v>41305</v>
       </c>
       <c r="B296" s="2">
@@ -9135,7 +9138,7 @@
       </c>
     </row>
     <row r="297" spans="1:9">
-      <c r="A297" s="5">
+      <c r="A297" s="3">
         <v>41333</v>
       </c>
       <c r="B297" s="2">
@@ -9164,7 +9167,7 @@
       </c>
     </row>
     <row r="298" spans="1:9">
-      <c r="A298" s="5">
+      <c r="A298" s="3">
         <v>41364</v>
       </c>
       <c r="B298" s="2">
@@ -9193,7 +9196,7 @@
       </c>
     </row>
     <row r="299" spans="1:9">
-      <c r="A299" s="5">
+      <c r="A299" s="3">
         <v>41394</v>
       </c>
       <c r="B299" s="2">
@@ -9222,7 +9225,7 @@
       </c>
     </row>
     <row r="300" spans="1:9">
-      <c r="A300" s="5">
+      <c r="A300" s="3">
         <v>41425</v>
       </c>
       <c r="B300" s="2">
@@ -9251,7 +9254,7 @@
       </c>
     </row>
     <row r="301" spans="1:9">
-      <c r="A301" s="5">
+      <c r="A301" s="3">
         <v>41455</v>
       </c>
       <c r="B301" s="2">
@@ -9280,7 +9283,7 @@
       </c>
     </row>
     <row r="302" spans="1:9">
-      <c r="A302" s="5">
+      <c r="A302" s="3">
         <v>41486</v>
       </c>
       <c r="B302" s="2">
@@ -9309,7 +9312,7 @@
       </c>
     </row>
     <row r="303" spans="1:9">
-      <c r="A303" s="5">
+      <c r="A303" s="3">
         <v>41517</v>
       </c>
       <c r="B303" s="2">
@@ -9338,7 +9341,7 @@
       </c>
     </row>
     <row r="304" spans="1:9">
-      <c r="A304" s="5">
+      <c r="A304" s="3">
         <v>41547</v>
       </c>
       <c r="B304" s="2">
@@ -9367,7 +9370,7 @@
       </c>
     </row>
     <row r="305" spans="1:9">
-      <c r="A305" s="5">
+      <c r="A305" s="3">
         <v>41578</v>
       </c>
       <c r="B305" s="2">
@@ -9396,7 +9399,7 @@
       </c>
     </row>
     <row r="306" spans="1:9">
-      <c r="A306" s="5">
+      <c r="A306" s="3">
         <v>41608</v>
       </c>
       <c r="B306" s="2">
@@ -9425,7 +9428,7 @@
       </c>
     </row>
     <row r="307" spans="1:9">
-      <c r="A307" s="5">
+      <c r="A307" s="3">
         <v>41639</v>
       </c>
       <c r="B307" s="2">
@@ -9454,7 +9457,7 @@
       </c>
     </row>
     <row r="308" spans="1:9">
-      <c r="A308" s="5">
+      <c r="A308" s="3">
         <v>41670</v>
       </c>
       <c r="B308" s="2">
@@ -9483,7 +9486,7 @@
       </c>
     </row>
     <row r="309" spans="1:9">
-      <c r="A309" s="5">
+      <c r="A309" s="3">
         <v>41698</v>
       </c>
       <c r="B309" s="2">
@@ -9512,7 +9515,7 @@
       </c>
     </row>
     <row r="310" spans="1:9">
-      <c r="A310" s="5">
+      <c r="A310" s="3">
         <v>41729</v>
       </c>
       <c r="B310" s="2">
@@ -9541,7 +9544,7 @@
       </c>
     </row>
     <row r="311" spans="1:9">
-      <c r="A311" s="5">
+      <c r="A311" s="3">
         <v>41759</v>
       </c>
       <c r="B311" s="2">
@@ -9570,7 +9573,7 @@
       </c>
     </row>
     <row r="312" spans="1:9">
-      <c r="A312" s="5">
+      <c r="A312" s="3">
         <v>41790</v>
       </c>
       <c r="B312" s="2">
@@ -9599,7 +9602,7 @@
       </c>
     </row>
     <row r="313" spans="1:9">
-      <c r="A313" s="5">
+      <c r="A313" s="3">
         <v>41820</v>
       </c>
       <c r="B313" s="2">
@@ -9628,7 +9631,7 @@
       </c>
     </row>
     <row r="314" spans="1:9">
-      <c r="A314" s="5">
+      <c r="A314" s="3">
         <v>41851</v>
       </c>
       <c r="B314" s="2">
@@ -9657,7 +9660,7 @@
       </c>
     </row>
     <row r="315" spans="1:9">
-      <c r="A315" s="5">
+      <c r="A315" s="3">
         <v>41882</v>
       </c>
       <c r="B315" s="2">
@@ -9686,7 +9689,7 @@
       </c>
     </row>
     <row r="316" spans="1:9">
-      <c r="A316" s="5">
+      <c r="A316" s="3">
         <v>41912</v>
       </c>
       <c r="B316" s="2">
@@ -9715,7 +9718,7 @@
       </c>
     </row>
     <row r="317" spans="1:9">
-      <c r="A317" s="5">
+      <c r="A317" s="3">
         <v>41943</v>
       </c>
       <c r="B317" s="2">
@@ -9744,7 +9747,7 @@
       </c>
     </row>
     <row r="318" spans="1:9">
-      <c r="A318" s="5">
+      <c r="A318" s="3">
         <v>41973</v>
       </c>
       <c r="B318" s="2">
@@ -9773,7 +9776,7 @@
       </c>
     </row>
     <row r="319" spans="1:9">
-      <c r="A319" s="5">
+      <c r="A319" s="3">
         <v>42004</v>
       </c>
       <c r="B319" s="2">
@@ -9802,7 +9805,7 @@
       </c>
     </row>
     <row r="320" spans="1:9">
-      <c r="A320" s="5">
+      <c r="A320" s="3">
         <v>42035</v>
       </c>
       <c r="B320" s="2">
@@ -9831,7 +9834,7 @@
       </c>
     </row>
     <row r="321" spans="1:9">
-      <c r="A321" s="5">
+      <c r="A321" s="3">
         <v>42063</v>
       </c>
       <c r="B321" s="2">
@@ -9860,7 +9863,7 @@
       </c>
     </row>
     <row r="322" spans="1:9">
-      <c r="A322" s="5">
+      <c r="A322" s="3">
         <v>42094</v>
       </c>
       <c r="B322" s="2">
@@ -9889,7 +9892,7 @@
       </c>
     </row>
     <row r="323" spans="1:9">
-      <c r="A323" s="5">
+      <c r="A323" s="3">
         <v>42124</v>
       </c>
       <c r="B323" s="2">
@@ -9918,7 +9921,7 @@
       </c>
     </row>
     <row r="324" spans="1:9">
-      <c r="A324" s="5">
+      <c r="A324" s="3">
         <v>42155</v>
       </c>
       <c r="B324" s="2">
@@ -9947,7 +9950,7 @@
       </c>
     </row>
     <row r="325" spans="1:9">
-      <c r="A325" s="5">
+      <c r="A325" s="3">
         <v>42185</v>
       </c>
       <c r="B325" s="2">
@@ -9976,7 +9979,7 @@
       </c>
     </row>
     <row r="326" spans="1:9">
-      <c r="A326" s="5">
+      <c r="A326" s="3">
         <v>42216</v>
       </c>
       <c r="B326" s="2">
@@ -10005,7 +10008,7 @@
       </c>
     </row>
     <row r="327" spans="1:9">
-      <c r="A327" s="5">
+      <c r="A327" s="3">
         <v>42247</v>
       </c>
       <c r="B327" s="2">
@@ -10034,7 +10037,7 @@
       </c>
     </row>
     <row r="328" spans="1:9">
-      <c r="A328" s="5">
+      <c r="A328" s="3">
         <v>42277</v>
       </c>
       <c r="B328" s="2">
@@ -10063,7 +10066,7 @@
       </c>
     </row>
     <row r="329" spans="1:9">
-      <c r="A329" s="5">
+      <c r="A329" s="3">
         <v>42308</v>
       </c>
       <c r="B329" s="2">
@@ -10092,7 +10095,7 @@
       </c>
     </row>
     <row r="330" spans="1:9">
-      <c r="A330" s="5">
+      <c r="A330" s="3">
         <v>42338</v>
       </c>
       <c r="B330" s="2">
@@ -10121,7 +10124,7 @@
       </c>
     </row>
     <row r="331" spans="1:9">
-      <c r="A331" s="5">
+      <c r="A331" s="3">
         <v>42369</v>
       </c>
       <c r="B331" s="2">
@@ -10150,7 +10153,7 @@
       </c>
     </row>
     <row r="332" spans="1:9">
-      <c r="A332" s="5">
+      <c r="A332" s="3">
         <v>42429</v>
       </c>
       <c r="B332" s="2">
@@ -10179,7 +10182,7 @@
       </c>
     </row>
     <row r="333" spans="1:9">
-      <c r="A333" s="5">
+      <c r="A333" s="3">
         <v>42460</v>
       </c>
       <c r="B333" s="2">
@@ -10208,7 +10211,7 @@
       </c>
     </row>
     <row r="334" spans="1:9">
-      <c r="A334" s="5">
+      <c r="A334" s="3">
         <v>42490</v>
       </c>
       <c r="B334" s="2">
@@ -10237,7 +10240,7 @@
       </c>
     </row>
     <row r="335" spans="1:9">
-      <c r="A335" s="5">
+      <c r="A335" s="3">
         <v>42521</v>
       </c>
       <c r="B335" s="2">
@@ -10266,7 +10269,7 @@
       </c>
     </row>
     <row r="336" spans="1:9">
-      <c r="A336" s="5">
+      <c r="A336" s="3">
         <v>42551</v>
       </c>
       <c r="B336" s="2">
@@ -10295,7 +10298,7 @@
       </c>
     </row>
     <row r="337" spans="1:9">
-      <c r="A337" s="5">
+      <c r="A337" s="3">
         <v>42582</v>
       </c>
       <c r="B337" s="2">
@@ -10324,7 +10327,7 @@
       </c>
     </row>
     <row r="338" spans="1:9">
-      <c r="A338" s="5">
+      <c r="A338" s="3">
         <v>42613</v>
       </c>
       <c r="B338" s="2">
@@ -10353,7 +10356,7 @@
       </c>
     </row>
     <row r="339" spans="1:9">
-      <c r="A339" s="5">
+      <c r="A339" s="3">
         <v>42643</v>
       </c>
       <c r="B339" s="2">
@@ -10382,7 +10385,7 @@
       </c>
     </row>
     <row r="340" spans="1:9">
-      <c r="A340" s="5">
+      <c r="A340" s="3">
         <v>42674</v>
       </c>
       <c r="B340" s="2">
@@ -10411,7 +10414,7 @@
       </c>
     </row>
     <row r="341" spans="1:9">
-      <c r="A341" s="5">
+      <c r="A341" s="3">
         <v>42704</v>
       </c>
       <c r="B341" s="2">
@@ -10440,7 +10443,7 @@
       </c>
     </row>
     <row r="342" spans="1:9">
-      <c r="A342" s="5">
+      <c r="A342" s="3">
         <v>42735</v>
       </c>
       <c r="B342" s="2">
@@ -10469,7 +10472,7 @@
       </c>
     </row>
     <row r="343" spans="1:9">
-      <c r="A343" s="5">
+      <c r="A343" s="3">
         <v>42794</v>
       </c>
       <c r="B343" s="2">
@@ -10498,7 +10501,7 @@
       </c>
     </row>
     <row r="344" spans="1:9">
-      <c r="A344" s="5">
+      <c r="A344" s="3">
         <v>42825</v>
       </c>
       <c r="B344" s="2">
@@ -10527,7 +10530,7 @@
       </c>
     </row>
     <row r="345" spans="1:9">
-      <c r="A345" s="5">
+      <c r="A345" s="3">
         <v>42855</v>
       </c>
       <c r="B345" s="2">
@@ -10556,7 +10559,7 @@
       </c>
     </row>
     <row r="346" spans="1:9">
-      <c r="A346" s="5">
+      <c r="A346" s="3">
         <v>42886</v>
       </c>
       <c r="B346" s="2">
@@ -10585,7 +10588,7 @@
       </c>
     </row>
     <row r="347" spans="1:9">
-      <c r="A347" s="5">
+      <c r="A347" s="3">
         <v>42916</v>
       </c>
       <c r="B347" s="2">
@@ -10614,7 +10617,7 @@
       </c>
     </row>
     <row r="348" spans="1:9">
-      <c r="A348" s="5">
+      <c r="A348" s="3">
         <v>42947</v>
       </c>
       <c r="B348" s="2">
@@ -10643,7 +10646,7 @@
       </c>
     </row>
     <row r="349" spans="1:9">
-      <c r="A349" s="5">
+      <c r="A349" s="3">
         <v>42978</v>
       </c>
       <c r="B349" s="2">
@@ -10672,7 +10675,7 @@
       </c>
     </row>
     <row r="350" spans="1:9">
-      <c r="A350" s="5">
+      <c r="A350" s="3">
         <v>43008</v>
       </c>
       <c r="B350" s="2">
@@ -10701,7 +10704,7 @@
       </c>
     </row>
     <row r="351" spans="1:9">
-      <c r="A351" s="5">
+      <c r="A351" s="3">
         <v>43039</v>
       </c>
       <c r="B351" s="2">
@@ -10730,7 +10733,7 @@
       </c>
     </row>
     <row r="352" spans="1:9">
-      <c r="A352" s="5">
+      <c r="A352" s="3">
         <v>43069</v>
       </c>
       <c r="B352" s="2">
@@ -10759,7 +10762,7 @@
       </c>
     </row>
     <row r="353" spans="1:9">
-      <c r="A353" s="5">
+      <c r="A353" s="3">
         <v>43100</v>
       </c>
       <c r="B353" s="2">
@@ -10788,7 +10791,7 @@
       </c>
     </row>
     <row r="354" spans="1:9">
-      <c r="A354" s="5">
+      <c r="A354" s="3">
         <v>43159</v>
       </c>
       <c r="B354" s="2">
@@ -10817,7 +10820,7 @@
       </c>
     </row>
     <row r="355" spans="1:9">
-      <c r="A355" s="5">
+      <c r="A355" s="3">
         <v>43190</v>
       </c>
       <c r="B355" s="2">
@@ -10846,7 +10849,7 @@
       </c>
     </row>
     <row r="356" spans="1:9">
-      <c r="A356" s="5">
+      <c r="A356" s="3">
         <v>43220</v>
       </c>
       <c r="B356" s="2">
@@ -10875,7 +10878,7 @@
       </c>
     </row>
     <row r="357" spans="1:9">
-      <c r="A357" s="5">
+      <c r="A357" s="3">
         <v>43251</v>
       </c>
       <c r="B357" s="2">
@@ -10904,7 +10907,7 @@
       </c>
     </row>
     <row r="358" spans="1:9">
-      <c r="A358" s="5">
+      <c r="A358" s="3">
         <v>43281</v>
       </c>
       <c r="B358" s="2">
@@ -10933,7 +10936,7 @@
       </c>
     </row>
     <row r="359" spans="1:9">
-      <c r="A359" s="5">
+      <c r="A359" s="3">
         <v>43312</v>
       </c>
       <c r="B359" s="2">
@@ -10962,7 +10965,7 @@
       </c>
     </row>
     <row r="360" spans="1:9">
-      <c r="A360" s="5">
+      <c r="A360" s="3">
         <v>43343</v>
       </c>
       <c r="B360" s="2">
@@ -10991,7 +10994,7 @@
       </c>
     </row>
     <row r="361" spans="1:9">
-      <c r="A361" s="5">
+      <c r="A361" s="3">
         <v>43373</v>
       </c>
       <c r="B361" s="2">
@@ -11020,7 +11023,7 @@
       </c>
     </row>
     <row r="362" spans="1:9">
-      <c r="A362" s="5">
+      <c r="A362" s="3">
         <v>43404</v>
       </c>
       <c r="B362" s="2">
@@ -11049,7 +11052,7 @@
       </c>
     </row>
     <row r="363" spans="1:9">
-      <c r="A363" s="5">
+      <c r="A363" s="3">
         <v>43434</v>
       </c>
       <c r="B363" s="2">
@@ -11078,7 +11081,7 @@
       </c>
     </row>
     <row r="364" spans="1:9">
-      <c r="A364" s="5">
+      <c r="A364" s="3">
         <v>43465</v>
       </c>
       <c r="B364" s="2">
@@ -11107,7 +11110,7 @@
       </c>
     </row>
     <row r="365" spans="1:9">
-      <c r="A365" s="5">
+      <c r="A365" s="3">
         <v>43524</v>
       </c>
       <c r="B365" s="2">
@@ -11136,7 +11139,7 @@
       </c>
     </row>
     <row r="366" spans="1:9">
-      <c r="A366" s="5">
+      <c r="A366" s="3">
         <v>43555</v>
       </c>
       <c r="B366" s="2">
@@ -11165,7 +11168,7 @@
       </c>
     </row>
     <row r="367" spans="1:9">
-      <c r="A367" s="5">
+      <c r="A367" s="3">
         <v>43585</v>
       </c>
       <c r="B367" s="2">
@@ -11194,7 +11197,7 @@
       </c>
     </row>
     <row r="368" spans="1:9">
-      <c r="A368" s="5">
+      <c r="A368" s="3">
         <v>43616</v>
       </c>
       <c r="B368" s="2">
@@ -11223,7 +11226,7 @@
       </c>
     </row>
     <row r="369" spans="1:9">
-      <c r="A369" s="5">
+      <c r="A369" s="3">
         <v>43646</v>
       </c>
       <c r="B369" s="2">
@@ -11252,7 +11255,7 @@
       </c>
     </row>
     <row r="370" spans="1:9">
-      <c r="A370" s="5">
+      <c r="A370" s="3">
         <v>43677</v>
       </c>
       <c r="B370" s="2">
@@ -11281,7 +11284,7 @@
       </c>
     </row>
     <row r="371" spans="1:9">
-      <c r="A371" s="5">
+      <c r="A371" s="3">
         <v>43708</v>
       </c>
       <c r="B371" s="2">
@@ -11310,7 +11313,7 @@
       </c>
     </row>
     <row r="372" spans="1:9">
-      <c r="A372" s="5">
+      <c r="A372" s="3">
         <v>43738</v>
       </c>
       <c r="B372" s="2">
@@ -11339,7 +11342,7 @@
       </c>
     </row>
     <row r="373" spans="1:9">
-      <c r="A373" s="5">
+      <c r="A373" s="3">
         <v>43769</v>
       </c>
       <c r="B373" s="2">
@@ -11368,7 +11371,7 @@
       </c>
     </row>
     <row r="374" spans="1:9">
-      <c r="A374" s="5">
+      <c r="A374" s="3">
         <v>43799</v>
       </c>
       <c r="B374" s="2">
@@ -11397,7 +11400,7 @@
       </c>
     </row>
     <row r="375" spans="1:9">
-      <c r="A375" s="5">
+      <c r="A375" s="3">
         <v>43830</v>
       </c>
       <c r="B375" s="2">
@@ -11426,7 +11429,7 @@
       </c>
     </row>
     <row r="376" spans="1:9">
-      <c r="A376" s="5">
+      <c r="A376" s="3">
         <v>43890</v>
       </c>
       <c r="B376" s="2">
@@ -11455,7 +11458,7 @@
       </c>
     </row>
     <row r="377" spans="1:9">
-      <c r="A377" s="5">
+      <c r="A377" s="3">
         <v>43921</v>
       </c>
       <c r="B377" s="2">
@@ -11484,7 +11487,7 @@
       </c>
     </row>
     <row r="378" spans="1:9">
-      <c r="A378" s="5">
+      <c r="A378" s="3">
         <v>43951</v>
       </c>
       <c r="B378" s="2">
@@ -11513,7 +11516,7 @@
       </c>
     </row>
     <row r="379" spans="1:9">
-      <c r="A379" s="5">
+      <c r="A379" s="3">
         <v>43982</v>
       </c>
       <c r="B379" s="2">
@@ -11542,7 +11545,7 @@
       </c>
     </row>
     <row r="380" spans="1:9">
-      <c r="A380" s="5">
+      <c r="A380" s="3">
         <v>44012</v>
       </c>
       <c r="B380" s="2">
@@ -11571,7 +11574,7 @@
       </c>
     </row>
     <row r="381" spans="1:9">
-      <c r="A381" s="5">
+      <c r="A381" s="3">
         <v>44043</v>
       </c>
       <c r="B381" s="2">
@@ -11600,7 +11603,7 @@
       </c>
     </row>
     <row r="382" spans="1:9">
-      <c r="A382" s="5">
+      <c r="A382" s="3">
         <v>44074</v>
       </c>
       <c r="B382" s="2">
@@ -11629,7 +11632,7 @@
       </c>
     </row>
     <row r="383" spans="1:9">
-      <c r="A383" s="5">
+      <c r="A383" s="3">
         <v>44104</v>
       </c>
       <c r="B383" s="2">
@@ -11658,7 +11661,7 @@
       </c>
     </row>
     <row r="384" spans="1:9">
-      <c r="A384" s="5">
+      <c r="A384" s="3">
         <v>44135</v>
       </c>
       <c r="B384" s="2">
@@ -11687,7 +11690,7 @@
       </c>
     </row>
     <row r="385" spans="1:9">
-      <c r="A385" s="5">
+      <c r="A385" s="3">
         <v>44165</v>
       </c>
       <c r="B385" s="2">
@@ -11716,7 +11719,7 @@
       </c>
     </row>
     <row r="386" spans="1:9">
-      <c r="A386" s="5">
+      <c r="A386" s="3">
         <v>44196</v>
       </c>
       <c r="B386" s="2">
@@ -11745,7 +11748,7 @@
       </c>
     </row>
     <row r="387" spans="1:9">
-      <c r="A387" s="5">
+      <c r="A387" s="3">
         <v>44255</v>
       </c>
       <c r="B387" s="2">
@@ -11774,7 +11777,7 @@
       </c>
     </row>
     <row r="388" spans="1:9">
-      <c r="A388" s="5">
+      <c r="A388" s="3">
         <v>44286</v>
       </c>
       <c r="B388" s="2">
@@ -11803,7 +11806,7 @@
       </c>
     </row>
     <row r="389" spans="1:9">
-      <c r="A389" s="5">
+      <c r="A389" s="3">
         <v>44316</v>
       </c>
       <c r="B389" s="2">
@@ -11832,7 +11835,7 @@
       </c>
     </row>
     <row r="390" spans="1:9">
-      <c r="A390" s="5">
+      <c r="A390" s="3">
         <v>44347</v>
       </c>
       <c r="B390" s="2">
@@ -11861,7 +11864,7 @@
       </c>
     </row>
     <row r="391" spans="1:9">
-      <c r="A391" s="5">
+      <c r="A391" s="3">
         <v>44377</v>
       </c>
       <c r="B391" s="2">
@@ -11890,7 +11893,7 @@
       </c>
     </row>
     <row r="392" spans="1:9">
-      <c r="A392" s="5">
+      <c r="A392" s="3">
         <v>44408</v>
       </c>
       <c r="B392" s="2">
@@ -11919,7 +11922,7 @@
       </c>
     </row>
     <row r="393" spans="1:9">
-      <c r="A393" s="5">
+      <c r="A393" s="3">
         <v>44439</v>
       </c>
       <c r="B393" s="2">
@@ -11948,7 +11951,7 @@
       </c>
     </row>
     <row r="394" spans="1:9">
-      <c r="A394" s="5">
+      <c r="A394" s="3">
         <v>44469</v>
       </c>
       <c r="B394" s="2">
@@ -11977,7 +11980,7 @@
       </c>
     </row>
     <row r="395" spans="1:9">
-      <c r="A395" s="5">
+      <c r="A395" s="3">
         <v>44500</v>
       </c>
       <c r="B395" s="2">
@@ -12006,7 +12009,7 @@
       </c>
     </row>
     <row r="396" spans="1:9">
-      <c r="A396" s="5">
+      <c r="A396" s="3">
         <v>44530</v>
       </c>
       <c r="B396" s="2">
@@ -12035,7 +12038,7 @@
       </c>
     </row>
     <row r="397" spans="1:9">
-      <c r="A397" s="5">
+      <c r="A397" s="3">
         <v>44561</v>
       </c>
       <c r="B397" s="2">
@@ -12064,7 +12067,7 @@
       </c>
     </row>
     <row r="398" spans="1:9">
-      <c r="A398" s="5">
+      <c r="A398" s="3">
         <v>44620</v>
       </c>
       <c r="B398" s="2">
@@ -12093,7 +12096,7 @@
       </c>
     </row>
     <row r="399" spans="1:9">
-      <c r="A399" s="5">
+      <c r="A399" s="3">
         <v>44651</v>
       </c>
       <c r="B399" s="2">
@@ -12122,7 +12125,7 @@
       </c>
     </row>
     <row r="400" spans="1:9">
-      <c r="A400" s="5">
+      <c r="A400" s="3">
         <v>44681</v>
       </c>
       <c r="B400" s="2">
@@ -12151,7 +12154,7 @@
       </c>
     </row>
     <row r="401" spans="1:9">
-      <c r="A401" s="5">
+      <c r="A401" s="3">
         <v>44712</v>
       </c>
       <c r="B401" s="2">
@@ -12180,7 +12183,7 @@
       </c>
     </row>
     <row r="402" spans="1:9">
-      <c r="A402" s="5">
+      <c r="A402" s="3">
         <v>44742</v>
       </c>
       <c r="B402" s="2">
@@ -12209,7 +12212,7 @@
       </c>
     </row>
     <row r="403" spans="1:9">
-      <c r="A403" s="5">
+      <c r="A403" s="3">
         <v>44773</v>
       </c>
       <c r="B403" s="2">
@@ -12238,7 +12241,7 @@
       </c>
     </row>
     <row r="404" spans="1:9">
-      <c r="A404" s="5">
+      <c r="A404" s="3">
         <v>44804</v>
       </c>
       <c r="B404" s="2">
@@ -12267,11 +12270,11 @@
       </c>
     </row>
     <row r="405" spans="1:9">
-      <c r="A405" s="5">
+      <c r="A405" s="3">
         <v>44834</v>
       </c>
       <c r="B405" s="2">
-        <v>304.2</v>
+        <v>304.3</v>
       </c>
       <c r="C405" s="2">
         <v>62867.4</v>
@@ -12296,7 +12299,7 @@
       </c>
     </row>
     <row r="406" spans="1:9">
-      <c r="A406" s="5">
+      <c r="A406" s="3">
         <v>44865</v>
       </c>
       <c r="B406" s="2">
@@ -12325,7 +12328,7 @@
       </c>
     </row>
     <row r="407" spans="1:9">
-      <c r="A407" s="5">
+      <c r="A407" s="3">
         <v>44895</v>
       </c>
       <c r="B407" s="2">
@@ -12354,7 +12357,7 @@
       </c>
     </row>
     <row r="408" spans="1:9">
-      <c r="A408" s="5">
+      <c r="A408" s="3">
         <v>44926</v>
       </c>
       <c r="B408" s="2">
@@ -12383,7 +12386,7 @@
       </c>
     </row>
     <row r="409" spans="1:9">
-      <c r="A409" s="5">
+      <c r="A409" s="3">
         <v>44985</v>
       </c>
       <c r="B409" s="2">
@@ -12412,7 +12415,7 @@
       </c>
     </row>
     <row r="410" spans="1:9">
-      <c r="A410" s="5">
+      <c r="A410" s="3">
         <v>45016</v>
       </c>
       <c r="B410" s="2">
@@ -12441,7 +12444,7 @@
       </c>
     </row>
     <row r="411" spans="1:9">
-      <c r="A411" s="5">
+      <c r="A411" s="3">
         <v>45046</v>
       </c>
       <c r="B411" s="2">
@@ -12470,7 +12473,7 @@
       </c>
     </row>
     <row r="412" spans="1:9">
-      <c r="A412" s="5">
+      <c r="A412" s="3">
         <v>45077</v>
       </c>
       <c r="B412" s="2">
@@ -12499,7 +12502,7 @@
       </c>
     </row>
     <row r="413" spans="1:9">
-      <c r="A413" s="5">
+      <c r="A413" s="3">
         <v>45107</v>
       </c>
       <c r="B413" s="2">
@@ -12528,7 +12531,7 @@
       </c>
     </row>
     <row r="414" spans="1:9">
-      <c r="A414" s="5">
+      <c r="A414" s="3">
         <v>45138</v>
       </c>
       <c r="B414" s="2">
@@ -12557,7 +12560,7 @@
       </c>
     </row>
     <row r="415" spans="1:9">
-      <c r="A415" s="5">
+      <c r="A415" s="3">
         <v>45169</v>
       </c>
       <c r="B415" s="2">
@@ -12586,7 +12589,7 @@
       </c>
     </row>
     <row r="416" spans="1:9">
-      <c r="A416" s="5">
+      <c r="A416" s="3">
         <v>45199</v>
       </c>
       <c r="B416" s="2">
@@ -12611,7 +12614,36 @@
         <v>5836.8</v>
       </c>
       <c r="I416" s="2">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" s="3">
+        <v>45230</v>
+      </c>
+      <c r="B417" s="2">
+        <v>0</v>
+      </c>
+      <c r="C417" s="2">
+        <v>73330</v>
+      </c>
+      <c r="D417" s="2">
+        <v>51077</v>
+      </c>
+      <c r="E417" s="2">
+        <v>9805</v>
+      </c>
+      <c r="F417" s="2">
+        <v>3587</v>
+      </c>
+      <c r="G417" s="2">
+        <v>2436</v>
+      </c>
+      <c r="H417" s="2">
+        <v>6424</v>
+      </c>
+      <c r="I417" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EEB192-E7FB-4A7A-812E-21362D72591D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5809B74F-C4A8-4C56-BFA1-E34E094AE914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coal Consumption Rate of Power " sheetId="1" r:id="rId1"/>
@@ -140,31 +140,31 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2003-05:2023-09</t>
-  </si>
-  <si>
     <t>Wind</t>
   </si>
   <si>
-    <t>2023-10-24</t>
+    <t>2003-05:2023-10</t>
   </si>
   <si>
-    <t>1989-02:2023-10</t>
+    <t>1989-02:2023-11</t>
   </si>
   <si>
-    <t>2001-01:2023-10</t>
+    <t>2001-01:2023-11</t>
   </si>
   <si>
-    <t>2016-05:2023-10</t>
+    <t>2016-05:2023-11</t>
   </si>
   <si>
-    <t>2009-09:2023-10</t>
+    <t>2009-09:2023-11</t>
   </si>
   <si>
-    <t>2023-11-15</t>
+    <t>2023-11-23</t>
   </si>
   <si>
-    <t>2023-11-03</t>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
   </si>
 </sst>
 </file>
@@ -565,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I417"/>
+  <dimension ref="A1:I418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -703,28 +703,28 @@
         <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -732,7 +732,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
@@ -753,7 +753,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -761,7 +761,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>34</v>
@@ -12622,27 +12622,56 @@
         <v>45230</v>
       </c>
       <c r="B417" s="2">
-        <v>0</v>
+        <v>304.7</v>
       </c>
       <c r="C417" s="2">
         <v>73330</v>
       </c>
       <c r="D417" s="2">
-        <v>51077</v>
+        <v>51077.1</v>
       </c>
       <c r="E417" s="2">
-        <v>9805</v>
+        <v>9804.9</v>
       </c>
       <c r="F417" s="2">
-        <v>3587</v>
+        <v>3587.3</v>
       </c>
       <c r="G417" s="2">
-        <v>2436</v>
+        <v>2435.7141999999999</v>
       </c>
       <c r="H417" s="2">
-        <v>6424</v>
+        <v>6424.3</v>
       </c>
       <c r="I417" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
+      <c r="A418" s="3">
+        <v>45260</v>
+      </c>
+      <c r="B418" s="2">
+        <v>0</v>
+      </c>
+      <c r="C418" s="2">
+        <v>80732</v>
+      </c>
+      <c r="D418" s="2">
+        <v>56178</v>
+      </c>
+      <c r="E418" s="2">
+        <v>10636</v>
+      </c>
+      <c r="F418" s="2">
+        <v>3952</v>
+      </c>
+      <c r="G418" s="2">
+        <v>2714</v>
+      </c>
+      <c r="H418" s="2">
+        <v>7252</v>
+      </c>
+      <c r="I418" s="2">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5809B74F-C4A8-4C56-BFA1-E34E094AE914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D495936C-39B8-4ECB-8E16-91361B34E094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,28 +143,28 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2003-05:2023-10</t>
+    <t>2003-05:2023-11</t>
   </si>
   <si>
-    <t>1989-02:2023-11</t>
+    <t>1989-02:2023-12</t>
   </si>
   <si>
-    <t>2001-01:2023-11</t>
+    <t>2001-01:2023-12</t>
   </si>
   <si>
-    <t>2016-05:2023-11</t>
+    <t>2016-05:2023-12</t>
   </si>
   <si>
-    <t>2009-09:2023-11</t>
+    <t>2009-09:2023-12</t>
   </si>
   <si>
-    <t>2023-11-23</t>
+    <t>2023-12-29</t>
   </si>
   <si>
-    <t>2023-12-15</t>
+    <t>2024-01-17</t>
   </si>
   <si>
-    <t>2023-11-24</t>
+    <t>2023-12-20</t>
   </si>
 </sst>
 </file>
@@ -269,9 +269,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -309,7 +309,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -415,7 +415,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -557,7 +557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -565,9 +565,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I418"/>
+  <dimension ref="A1:I419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
       <selection activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
@@ -12332,7 +12332,7 @@
         <v>44895</v>
       </c>
       <c r="B407" s="2">
-        <v>303.39999999999998</v>
+        <v>303.45271100000002</v>
       </c>
       <c r="C407" s="2">
         <v>76285.8</v>
@@ -12651,7 +12651,7 @@
         <v>45260</v>
       </c>
       <c r="B418" s="2">
-        <v>0</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="C418" s="2">
         <v>80732</v>
@@ -12666,12 +12666,41 @@
         <v>3952</v>
       </c>
       <c r="G418" s="2">
-        <v>2714</v>
+        <v>2713.9776000000002</v>
       </c>
       <c r="H418" s="2">
         <v>7252</v>
       </c>
       <c r="I418" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="A419" s="3">
+        <v>45291</v>
+      </c>
+      <c r="B419" s="2">
+        <v>0</v>
+      </c>
+      <c r="C419" s="2">
+        <v>89090.784299999999</v>
+      </c>
+      <c r="D419" s="2">
+        <v>62318.038800000002</v>
+      </c>
+      <c r="E419" s="2">
+        <v>11408.859899999999</v>
+      </c>
+      <c r="F419" s="2">
+        <v>4332.5554000000002</v>
+      </c>
+      <c r="G419" s="2">
+        <v>2939.6819</v>
+      </c>
+      <c r="H419" s="2">
+        <v>8090.4933000000001</v>
+      </c>
+      <c r="I419" s="2">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6B396B-B120-494E-BFEB-EC8DCBA40D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787857D2-2CDF-4A65-9379-7749E0F87812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coal Consumption Rate of Power " sheetId="1" r:id="rId1"/>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787857D2-2CDF-4A65-9379-7749E0F87812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C2C2E7-0BF8-45FE-A2A1-AD0E17480A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D822DFA7-CC9E-4D7A-86CF-E88508F5FC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF0010F-5266-4228-9DF2-D2E38B331B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Coal Consumption Rate of " sheetId="1" r:id="rId1"/>
@@ -146,13 +146,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-08-26</t>
-  </si>
-  <si>
     <t>2024-09-14</t>
   </si>
   <si>
-    <t>2024-08-30</t>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
   </si>
 </sst>
 </file>
@@ -579,12 +579,12 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -769,7 +769,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>30</v>
@@ -778,7 +778,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>30</v>
@@ -12572,7 +12572,7 @@
         <v>45169</v>
       </c>
       <c r="B415" s="3">
-        <v>304</v>
+        <v>304.39999999999998</v>
       </c>
       <c r="C415" s="3">
         <v>58662.557999999997</v>
@@ -12891,28 +12891,28 @@
         <v>45535</v>
       </c>
       <c r="B426" s="3">
-        <v>0</v>
+        <v>305.8</v>
       </c>
       <c r="C426" s="3">
-        <v>62379</v>
+        <v>62378.8</v>
       </c>
       <c r="D426" s="3">
-        <v>41968</v>
+        <v>41967.7</v>
       </c>
       <c r="E426" s="3">
         <v>8822</v>
       </c>
       <c r="F426" s="3">
-        <v>2920</v>
+        <v>2920.4</v>
       </c>
       <c r="G426" s="3">
-        <v>2695</v>
+        <v>2695.1370000000002</v>
       </c>
       <c r="H426" s="3">
-        <v>5973</v>
+        <v>5973.5</v>
       </c>
       <c r="I426" s="3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF0010F-5266-4228-9DF2-D2E38B331B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A8F12D-A38F-41A4-BA36-72EEBCFE7A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -585,9 +585,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A8F12D-A38F-41A4-BA36-72EEBCFE7A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0F6715-6E6E-45E6-AD9F-59C5A3561529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -585,9 +585,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0F6715-6E6E-45E6-AD9F-59C5A3561529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA3896E-88C9-4DFA-8F22-73C7546E7F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -585,9 +585,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA3896E-88C9-4DFA-8F22-73C7546E7F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C63AD6F-1818-4CC0-96D9-28F72458E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -585,9 +585,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C63AD6F-1818-4CC0-96D9-28F72458E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0B8FD0-3677-4462-88FF-C0507C92F982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -585,9 +585,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0B8FD0-3677-4462-88FF-C0507C92F982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29EC568-35AE-4C1F-9147-222D17BBA131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -585,9 +585,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29EC568-35AE-4C1F-9147-222D17BBA131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B3C8B0-4E3B-4311-8FA2-D993CE631FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -585,9 +585,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B3C8B0-4E3B-4311-8FA2-D993CE631FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE78EFE-B7F7-47CD-AD58-44BB1D576CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -585,9 +585,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE78EFE-B7F7-47CD-AD58-44BB1D576CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23768F52-9211-4058-926C-0FCB0C9266B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,10 +210,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -585,9 +585,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23768F52-9211-4058-926C-0FCB0C9266B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF5F72E-CE57-4118-B5C0-4E936F8B9F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Country</t>
   </si>
@@ -146,13 +146,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-09-14</t>
+    <t>2024-09-23</t>
   </si>
   <si>
-    <t>2024-09-19</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
+    <t>2024-10-18</t>
   </si>
 </sst>
 </file>
@@ -210,10 +207,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -573,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I426"/>
+  <dimension ref="A1:I427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -585,9 +582,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -769,7 +766,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>30</v>
@@ -778,7 +775,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>30</v>
@@ -790,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12913,6 +12910,35 @@
       </c>
       <c r="I426" s="3">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B427" s="3">
+        <v>0</v>
+      </c>
+      <c r="C427" s="3">
+        <v>70560</v>
+      </c>
+      <c r="D427" s="3">
+        <v>47439</v>
+      </c>
+      <c r="E427" s="3">
+        <v>10040</v>
+      </c>
+      <c r="F427" s="3">
+        <v>3275</v>
+      </c>
+      <c r="G427" s="3">
+        <v>3073</v>
+      </c>
+      <c r="H427" s="3">
+        <v>6733</v>
+      </c>
+      <c r="I427" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF5F72E-CE57-4118-B5C0-4E936F8B9F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4610306B-1F78-412C-BB99-D64DF262791E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,10 +207,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -582,9 +582,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4610306B-1F78-412C-BB99-D64DF262791E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462E1B7A-E1E5-41EA-870A-AC6B5F53D2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,10 +207,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -582,9 +582,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23768F52-9211-4058-926C-0FCB0C9266B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E6A37B-4D37-45B3-A17B-670E5850E926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Country</t>
   </si>
@@ -146,13 +146,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-09-14</t>
+    <t>2024-09-23</t>
   </si>
   <si>
-    <t>2024-09-19</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
+    <t>2024-10-18</t>
   </si>
 </sst>
 </file>
@@ -210,10 +207,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -573,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I426"/>
+  <dimension ref="A1:I427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -585,9 +582,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -769,7 +766,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>30</v>
@@ -778,7 +775,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>30</v>
@@ -790,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12913,6 +12910,35 @@
       </c>
       <c r="I426" s="3">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B427" s="3">
+        <v>0</v>
+      </c>
+      <c r="C427" s="3">
+        <v>70560</v>
+      </c>
+      <c r="D427" s="3">
+        <v>47439</v>
+      </c>
+      <c r="E427" s="3">
+        <v>10040</v>
+      </c>
+      <c r="F427" s="3">
+        <v>3275</v>
+      </c>
+      <c r="G427" s="3">
+        <v>3073</v>
+      </c>
+      <c r="H427" s="3">
+        <v>6733</v>
+      </c>
+      <c r="I427" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E6A37B-4D37-45B3-A17B-670E5850E926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A083A3-9856-4556-863D-59B3267DA45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,10 +207,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -582,9 +582,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A083A3-9856-4556-863D-59B3267DA45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2977D3-0AA5-49E8-BCEE-92785E24DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,10 +146,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-09-23</t>
+    <t>2024-10-18</t>
   </si>
   <si>
-    <t>2024-10-18</t>
+    <t>2024-10-21</t>
   </si>
 </sst>
 </file>
@@ -207,10 +207,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -582,9 +582,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -766,28 +766,28 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12917,7 +12917,7 @@
         <v>45565</v>
       </c>
       <c r="B427" s="3">
-        <v>0</v>
+        <v>305.8</v>
       </c>
       <c r="C427" s="3">
         <v>70560</v>
@@ -12938,7 +12938,7 @@
         <v>6733</v>
       </c>
       <c r="I427" s="3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2977D3-0AA5-49E8-BCEE-92785E24DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDE0403-6FEB-4D38-8D8C-FE2567ECBB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Coal Consumption Rate of " sheetId="1" r:id="rId1"/>
@@ -146,10 +146,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-10-18</t>
+    <t>2024-10-21</t>
   </si>
   <si>
-    <t>2024-10-21</t>
+    <t>2024-10-22</t>
   </si>
 </sst>
 </file>
@@ -572,16 +572,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -766,28 +766,28 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12920,22 +12920,22 @@
         <v>305.8</v>
       </c>
       <c r="C427" s="3">
-        <v>70560</v>
+        <v>70560.399999999994</v>
       </c>
       <c r="D427" s="3">
-        <v>47439</v>
+        <v>47438.8</v>
       </c>
       <c r="E427" s="3">
-        <v>10040</v>
+        <v>10039.700000000001</v>
       </c>
       <c r="F427" s="3">
-        <v>3275</v>
+        <v>3275.5</v>
       </c>
       <c r="G427" s="3">
-        <v>3073</v>
+        <v>3073.1179999999999</v>
       </c>
       <c r="H427" s="3">
-        <v>6733</v>
+        <v>6733.2</v>
       </c>
       <c r="I427" s="3">
         <v>0.7</v>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDE0403-6FEB-4D38-8D8C-FE2567ECBB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42747DCB-A06E-4C1B-A2B1-A41AB8FE86A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Coal Consumption Rate of " sheetId="1" r:id="rId1"/>
@@ -576,12 +576,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42747DCB-A06E-4C1B-A2B1-A41AB8FE86A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A494E9C1-DFF0-4BE0-B8C6-FCF94E238B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Country</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
   </si>
 </sst>
 </file>
@@ -787,7 +790,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12598,7 +12601,7 @@
         <v>45199</v>
       </c>
       <c r="B416" s="3">
-        <v>304.89999999999998</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="C416" s="3">
         <v>66219.199999999997</v>
@@ -12938,7 +12941,7 @@
         <v>6733.2</v>
       </c>
       <c r="I427" s="3">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A494E9C1-DFF0-4BE0-B8C6-FCF94E238B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284BEF27-20FE-4904-A000-8E8A8D0337D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Coal Consumption Rate of " sheetId="1" r:id="rId1"/>
@@ -149,10 +149,10 @@
     <t>2024-10-21</t>
   </si>
   <si>
-    <t>2024-10-22</t>
+    <t>2024-10-28</t>
   </si>
   <si>
-    <t>2024-10-28</t>
+    <t>2024-11-15</t>
   </si>
 </sst>
 </file>
@@ -573,18 +573,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -772,25 +772,25 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12942,6 +12942,35 @@
       </c>
       <c r="I427" s="3">
         <v>0.74</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B428" s="3">
+        <v>0</v>
+      </c>
+      <c r="C428" s="3">
+        <v>78027</v>
+      </c>
+      <c r="D428" s="3">
+        <v>52230</v>
+      </c>
+      <c r="E428" s="3">
+        <v>11101</v>
+      </c>
+      <c r="F428" s="3">
+        <v>3643</v>
+      </c>
+      <c r="G428" s="3">
+        <v>3472</v>
+      </c>
+      <c r="H428" s="3">
+        <v>7581</v>
+      </c>
+      <c r="I428" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284BEF27-20FE-4904-A000-8E8A8D0337D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298F9E17-19E7-46D8-8020-3C6EC4F81AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Coal Consumption Rate of " sheetId="1" r:id="rId1"/>
@@ -146,13 +146,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-10-21</t>
+    <t>2024-11-22</t>
   </si>
   <si>
-    <t>2024-10-28</t>
+    <t>2024-11-19</t>
   </si>
   <si>
-    <t>2024-11-15</t>
+    <t>2024-11-29</t>
   </si>
 </sst>
 </file>
@@ -576,15 +576,15 @@
   <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -772,25 +772,25 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12630,7 +12630,7 @@
         <v>45230</v>
       </c>
       <c r="B417" s="3">
-        <v>304.7</v>
+        <v>305.2</v>
       </c>
       <c r="C417" s="3">
         <v>73330</v>
@@ -12949,28 +12949,28 @@
         <v>45596</v>
       </c>
       <c r="B428" s="3">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="C428" s="3">
-        <v>78027</v>
+        <v>78027.199999999997</v>
       </c>
       <c r="D428" s="3">
-        <v>52230</v>
+        <v>52230.5</v>
       </c>
       <c r="E428" s="3">
-        <v>11101</v>
+        <v>11100.7</v>
       </c>
       <c r="F428" s="3">
-        <v>3643</v>
+        <v>3642.8</v>
       </c>
       <c r="G428" s="3">
-        <v>3472</v>
+        <v>3472.1931</v>
       </c>
       <c r="H428" s="3">
-        <v>7581</v>
+        <v>7580.9</v>
       </c>
       <c r="I428" s="3">
-        <v>0</v>
+        <v>1.79</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298F9E17-19E7-46D8-8020-3C6EC4F81AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55410C1-E2D1-4D9E-B799-716906C7F7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Coal Consumption Rate of " sheetId="1" r:id="rId1"/>
@@ -149,10 +149,10 @@
     <t>2024-11-22</t>
   </si>
   <si>
-    <t>2024-11-19</t>
+    <t>2024-11-29</t>
   </si>
   <si>
-    <t>2024-11-29</t>
+    <t>2024-12-16</t>
   </si>
 </sst>
 </file>
@@ -573,18 +573,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -772,25 +772,25 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12971,6 +12971,35 @@
       </c>
       <c r="I428" s="3">
         <v>1.79</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B429" s="3">
+        <v>0</v>
+      </c>
+      <c r="C429" s="3">
+        <v>85687</v>
+      </c>
+      <c r="D429" s="3">
+        <v>57442</v>
+      </c>
+      <c r="E429" s="3">
+        <v>11926</v>
+      </c>
+      <c r="F429" s="3">
+        <v>4025</v>
+      </c>
+      <c r="G429" s="3">
+        <v>3856</v>
+      </c>
+      <c r="H429" s="3">
+        <v>8438</v>
+      </c>
+      <c r="I429" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55410C1-E2D1-4D9E-B799-716906C7F7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B9A5B0-6CCB-4CD9-AFD9-A780D0D47CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Coal Consumption Rate of " sheetId="1" r:id="rId1"/>
@@ -579,12 +579,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B9A5B0-6CCB-4CD9-AFD9-A780D0D47CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967DEFF-DB8A-400F-9B3B-EBFF440785CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Country</t>
   </si>
@@ -146,13 +146,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-11-22</t>
+    <t>2024-12-16</t>
   </si>
   <si>
-    <t>2024-11-29</t>
-  </si>
-  <si>
-    <t>2024-12-16</t>
+    <t>2024-12-20</t>
   </si>
 </sst>
 </file>
@@ -769,25 +766,25 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>30</v>
@@ -12978,7 +12975,7 @@
         <v>45626</v>
       </c>
       <c r="B429" s="3">
-        <v>0</v>
+        <v>304.8</v>
       </c>
       <c r="C429" s="3">
         <v>85687</v>
@@ -12999,7 +12996,7 @@
         <v>8438</v>
       </c>
       <c r="I429" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967DEFF-DB8A-400F-9B3B-EBFF440785CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305C840B-D012-4F94-86DA-BE3967B47E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Country</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>2025-01-02</t>
   </si>
 </sst>
 </file>
@@ -787,7 +790,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12656,7 +12659,7 @@
         <v>45260</v>
       </c>
       <c r="B418" s="3">
-        <v>303.39999999999998</v>
+        <v>303.89999999999998</v>
       </c>
       <c r="C418" s="3">
         <v>80732</v>
@@ -12996,7 +12999,7 @@
         <v>8438</v>
       </c>
       <c r="I429" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305C840B-D012-4F94-86DA-BE3967B47E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F45C9B2-D6E8-43D1-9619-66AF07F18626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Coal Consumption Rate of " sheetId="1" r:id="rId1"/>
@@ -146,13 +146,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-12-16</t>
-  </si>
-  <si>
     <t>2024-12-20</t>
   </si>
   <si>
     <t>2025-01-02</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
   </si>
 </sst>
 </file>
@@ -573,18 +573,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I429"/>
+  <dimension ref="A1:I430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -769,28 +769,28 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13000,6 +13000,35 @@
       </c>
       <c r="I429" s="3">
         <v>0.98</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
+      <c r="A430" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B430" s="3">
+        <v>0</v>
+      </c>
+      <c r="C430" s="3">
+        <v>94181</v>
+      </c>
+      <c r="D430" s="3">
+        <v>63438</v>
+      </c>
+      <c r="E430" s="3">
+        <v>12742</v>
+      </c>
+      <c r="F430" s="3">
+        <v>4449</v>
+      </c>
+      <c r="G430" s="3">
+        <v>4191</v>
+      </c>
+      <c r="H430" s="3">
+        <v>9360</v>
+      </c>
+      <c r="I430" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F45C9B2-D6E8-43D1-9619-66AF07F18626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5346E8-AF40-4808-A151-F50B955FFEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Coal Consumption Rate of " sheetId="1" r:id="rId1"/>
@@ -579,12 +579,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -12981,22 +12981,22 @@
         <v>304.8</v>
       </c>
       <c r="C429" s="3">
-        <v>85687</v>
+        <v>85687.5</v>
       </c>
       <c r="D429" s="3">
-        <v>57442</v>
+        <v>57441.7</v>
       </c>
       <c r="E429" s="3">
-        <v>11926</v>
+        <v>11926.3</v>
       </c>
       <c r="F429" s="3">
-        <v>4025</v>
+        <v>4025.2</v>
       </c>
       <c r="G429" s="3">
-        <v>3856</v>
+        <v>3856.4371999999998</v>
       </c>
       <c r="H429" s="3">
-        <v>8438</v>
+        <v>8437.7000000000007</v>
       </c>
       <c r="I429" s="3">
         <v>0.98</v>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5346E8-AF40-4808-A151-F50B955FFEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB784D-CC2B-41AB-9031-2BFC19A96AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Country</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
   </si>
 </sst>
 </file>
@@ -772,22 +775,22 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>30</v>
@@ -13010,22 +13013,22 @@
         <v>0</v>
       </c>
       <c r="C430" s="3">
-        <v>94181</v>
+        <v>94180.6</v>
       </c>
       <c r="D430" s="3">
-        <v>63438</v>
+        <v>63437.7</v>
       </c>
       <c r="E430" s="3">
-        <v>12742</v>
+        <v>12742.5</v>
       </c>
       <c r="F430" s="3">
         <v>4449</v>
       </c>
       <c r="G430" s="3">
-        <v>4191</v>
+        <v>4190.8499000000002</v>
       </c>
       <c r="H430" s="3">
-        <v>9360</v>
+        <v>9360.5</v>
       </c>
       <c r="I430" s="3">
         <v>0</v>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB784D-CC2B-41AB-9031-2BFC19A96AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE498C55-9C0C-4267-875D-AF866BC8E257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Country</t>
   </si>
@@ -146,16 +146,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-12-20</t>
-  </si>
-  <si>
-    <t>2025-01-02</t>
-  </si>
-  <si>
     <t>2025-01-17</t>
   </si>
   <si>
     <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
   </si>
 </sst>
 </file>
@@ -772,28 +769,28 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13010,7 +13007,7 @@
         <v>45657</v>
       </c>
       <c r="B430" s="3">
-        <v>0</v>
+        <v>303.20999399999999</v>
       </c>
       <c r="C430" s="3">
         <v>94180.6</v>
@@ -13031,7 +13028,7 @@
         <v>9360.5</v>
       </c>
       <c r="I430" s="3">
-        <v>0</v>
+        <v>1.581542</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power generation by type.xlsx
+++ b/inst/extdata/power generation by type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE498C55-9C0C-4267-875D-AF866BC8E257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E11E63A-2EBA-4795-ADFE-704D68D79BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <t>2025-01-21</t>
   </si>
   <si>
-    <t>2025-01-24</t>
+    <t>2025-01-26</t>
   </si>
 </sst>
 </file>
